--- a/Output/ServiceMenu.xlsx
+++ b/Output/ServiceMenu.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="424">
   <si>
     <t>1</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>NodeID</t>
   </si>
   <si>
     <t>NodeName</t>
@@ -1356,3809 +1353,3693 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1"/>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
       <c r="K2"/>
     </row>
     <row r="3">
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
       </c>
       <c r="K3"/>
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
         <v>369.0</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
         <v>20</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
         <v>406.0</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="n">
         <v>407.0</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>413.0</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
         <v>368.0</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
         <v>408.0</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="n">
         <v>130.0</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="n">
         <v>40.0</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
         <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>352.0</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
         <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>40</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="n">
         <v>361.0</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
         <v>60.0</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
         <v>353.0</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
         <v>146.0</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
         <v>55.0</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
         <v>120.0</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
         <v>15.0</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
         <v>317.0</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21"/>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
         <v>325.0</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
         <v>374.0</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="n">
         <v>372.0</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
         <v>326.0</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="n">
         <v>358.0</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" t="n">
         <v>366.0</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G28" t="n">
         <v>359.0</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J28"/>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G29" t="n">
         <v>373.0</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G30" t="n">
         <v>360.0</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
         <v>367.0</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" t="n">
         <v>414.0</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" t="n">
         <v>161.0</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33"/>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" t="n">
         <v>307.0</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" t="n">
         <v>306.0</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2.0</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K36"/>
     </row>
     <row r="37">
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" t="n">
         <v>418.0</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
       <c r="D38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" t="n">
         <v>404.0</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J38"/>
       <c r="K38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
         <v>405.0</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" t="n">
         <v>410.0</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J40"/>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
       <c r="D41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" t="n">
         <v>162.0</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
       <c r="D42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" t="n">
         <v>316.0</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43">
       <c r="D43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" t="n">
         <v>409.0</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44">
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" t="n">
         <v>411.0</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="D45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" t="n">
         <v>402.0</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="D46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" t="n">
         <v>363.0</v>
       </c>
       <c r="H46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J46"/>
       <c r="K46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" t="n">
         <v>401.0</v>
       </c>
       <c r="H47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" t="n">
         <v>354.0</v>
       </c>
       <c r="H48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
       <c r="C49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3.0</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K49"/>
     </row>
     <row r="50">
       <c r="C50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
         <v>112</v>
-      </c>
-      <c r="I50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" t="s">
-        <v>113</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
       <c r="D51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" t="n">
         <v>19.0</v>
       </c>
       <c r="H51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" t="n">
         <v>412.0</v>
       </c>
       <c r="H52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
         <v>34.0</v>
       </c>
       <c r="H53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="n">
-        <v>4.0</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K54"/>
     </row>
     <row r="55">
       <c r="C55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
+        <v>117</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" t="s">
         <v>118</v>
-      </c>
-      <c r="I55" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" t="s">
-        <v>119</v>
       </c>
       <c r="K55"/>
       <c r="L55" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
       <c r="D56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G56" t="n">
         <v>10.0</v>
       </c>
       <c r="H56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" t="n">
         <v>11.0</v>
       </c>
       <c r="H57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L57" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" t="n">
         <v>12.0</v>
       </c>
       <c r="H58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" t="n">
         <v>13.0</v>
       </c>
       <c r="H59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" t="n">
         <v>14.0</v>
       </c>
       <c r="H60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J60"/>
       <c r="K60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
       <c r="D61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" t="n">
         <v>302.0</v>
       </c>
       <c r="H61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J61"/>
       <c r="K61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="D62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G62" t="n">
         <v>30.0</v>
       </c>
       <c r="H62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J62"/>
       <c r="K62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
       <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K63"/>
       <c r="L63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" t="n">
         <v>116.0</v>
       </c>
       <c r="H64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G65" t="n">
         <v>117.0</v>
       </c>
       <c r="H65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L65" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G66" t="n">
         <v>118.0</v>
       </c>
       <c r="H66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G67" t="n">
         <v>119.0</v>
       </c>
       <c r="H67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G68" t="n">
         <v>315.0</v>
       </c>
       <c r="H68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69">
       <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2.0</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K69"/>
       <c r="L69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="70">
       <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K70"/>
       <c r="L70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G71" t="n">
         <v>176.0</v>
       </c>
       <c r="H71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" t="n">
         <v>176.0</v>
       </c>
       <c r="H72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.0</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" t="n">
         <v>177.0</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G75" t="n">
         <v>177.0</v>
       </c>
       <c r="H75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="n">
-        <v>2.0</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G77" t="n">
         <v>178.0</v>
       </c>
       <c r="H77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G78" t="n">
         <v>178.0</v>
       </c>
       <c r="H78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="n">
-        <v>3.0</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" t="n">
         <v>179.0</v>
       </c>
       <c r="H80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" t="n">
         <v>179.0</v>
       </c>
       <c r="H81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="n">
-        <v>4.0</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G83" t="n">
         <v>180.0</v>
       </c>
       <c r="H83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" t="n">
         <v>180.0</v>
       </c>
       <c r="H84" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85">
       <c r="D85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86">
       <c r="D86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J86" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G87" t="n">
         <v>21.0</v>
       </c>
       <c r="H87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G88" t="n">
         <v>21.0</v>
       </c>
       <c r="H88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J88"/>
       <c r="K88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.0</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K89"/>
       <c r="L89" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" t="n">
         <v>22.0</v>
       </c>
       <c r="H90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J90"/>
       <c r="K90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G91" t="n">
         <v>22.0</v>
       </c>
       <c r="H91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J91"/>
       <c r="K91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2.0</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K92"/>
       <c r="L92" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" t="n">
         <v>23.0</v>
       </c>
       <c r="H93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J93"/>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G94" t="n">
         <v>23.0</v>
       </c>
       <c r="H94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J94"/>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="n">
-        <v>3.0</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K95"/>
       <c r="L95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G96" t="n">
         <v>24.0</v>
       </c>
       <c r="H96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J96"/>
       <c r="K96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97">
       <c r="F97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G97" t="n">
         <v>24.0</v>
       </c>
       <c r="H97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J97"/>
       <c r="K97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="n">
-        <v>4.0</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K98"/>
       <c r="L98" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G99" t="n">
         <v>25.0</v>
       </c>
       <c r="H99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J99"/>
       <c r="K99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100">
       <c r="F100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G100" t="n">
         <v>25.0</v>
       </c>
       <c r="H100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J100"/>
       <c r="K100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="101">
       <c r="D101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G101" t="n">
         <v>27.0</v>
       </c>
       <c r="H101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J101"/>
       <c r="K101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102">
       <c r="D102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K102"/>
       <c r="L102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103">
       <c r="D103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G103" t="n">
         <v>322.0</v>
       </c>
       <c r="H103" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J103"/>
       <c r="K103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G104" t="n">
         <v>322.0</v>
       </c>
       <c r="H104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J104"/>
       <c r="K104" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="D105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G105" t="n">
         <v>300.0</v>
       </c>
       <c r="H105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J105"/>
       <c r="K105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L105" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="106">
       <c r="D106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G106" t="n">
         <v>138.0</v>
       </c>
       <c r="H106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J106"/>
       <c r="K106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107">
       <c r="C107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="n">
-        <v>8.0</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K107"/>
     </row>
     <row r="108">
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G108" t="n">
         <v>349.0</v>
       </c>
       <c r="H108" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J108"/>
       <c r="K108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L108" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="109">
       <c r="D109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G109" t="n">
         <v>350.0</v>
       </c>
       <c r="H109" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J109"/>
       <c r="K109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110">
       <c r="D110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G110" t="n">
         <v>355.0</v>
       </c>
       <c r="H110" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J110"/>
       <c r="K110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111">
       <c r="D111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G111" t="n">
         <v>375.0</v>
       </c>
       <c r="H111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J111"/>
       <c r="K111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L111" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112">
       <c r="D112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G112" t="n">
         <v>356.0</v>
       </c>
       <c r="H112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J112"/>
       <c r="K112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113">
       <c r="D113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G113" t="n">
         <v>376.0</v>
       </c>
       <c r="H113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J113"/>
       <c r="K113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114">
       <c r="D114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G114" t="n">
         <v>378.0</v>
       </c>
       <c r="H114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J114"/>
       <c r="K114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L114" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115">
       <c r="D115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G115" t="n">
         <v>379.0</v>
       </c>
       <c r="H115" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J115"/>
       <c r="K115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116">
       <c r="D116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G116" t="n">
         <v>377.0</v>
       </c>
       <c r="H116" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J116"/>
       <c r="K116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117">
       <c r="D117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G117" t="n">
         <v>357.0</v>
       </c>
       <c r="H117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J117"/>
       <c r="K117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118">
       <c r="D118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G118" t="n">
         <v>327.0</v>
       </c>
       <c r="H118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J118"/>
       <c r="K118" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L118" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119">
       <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="n">
-        <v>5.0</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K119"/>
     </row>
     <row r="120">
       <c r="C120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G120" t="n">
         <v>154.0</v>
       </c>
       <c r="H120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J120"/>
       <c r="K120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121">
       <c r="D121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G121" t="n">
         <v>362.0</v>
       </c>
       <c r="H121" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J121"/>
       <c r="K121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L121" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="122">
       <c r="D122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G122" t="n">
         <v>305.0</v>
       </c>
       <c r="H122" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J122"/>
       <c r="K122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123">
       <c r="D123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G123" t="n">
         <v>323.0</v>
       </c>
       <c r="H123" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J123"/>
       <c r="K123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L123" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124">
       <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="G124" t="n">
-        <v>7.0</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K124"/>
     </row>
     <row r="125">
       <c r="C125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G125" t="n">
         <v>417.0</v>
       </c>
       <c r="H125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J125"/>
       <c r="K125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L125" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="126">
       <c r="D126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G126" t="n">
         <v>31.0</v>
       </c>
       <c r="H126" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J126"/>
       <c r="K126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L126" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127">
       <c r="D127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G127" t="n">
         <v>163.0</v>
       </c>
       <c r="H127" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J127"/>
       <c r="K127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L127" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I128" t="s">
+        <v>12</v>
+      </c>
+      <c r="J128" t="s">
         <v>13</v>
-      </c>
-      <c r="J128" t="s">
-        <v>14</v>
       </c>
       <c r="K128"/>
     </row>
     <row r="129">
       <c r="B129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K129"/>
     </row>
     <row r="130">
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G130" t="n">
         <v>216.0</v>
       </c>
       <c r="H130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J130"/>
       <c r="K130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L130" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131">
       <c r="D131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G131" t="n">
         <v>150.0</v>
       </c>
       <c r="H131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J131"/>
       <c r="K131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="132">
       <c r="D132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G132" t="n">
         <v>99.0</v>
       </c>
       <c r="H132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J132"/>
       <c r="K132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133">
       <c r="D133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G133" t="n">
         <v>79.0</v>
       </c>
       <c r="H133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J133"/>
       <c r="K133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L133" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134">
       <c r="D134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G134" t="n">
         <v>267.0</v>
       </c>
       <c r="H134" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J134"/>
       <c r="K134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L134" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135">
       <c r="D135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G135" t="n">
         <v>71.0</v>
       </c>
       <c r="H135" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J135"/>
       <c r="K135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L135" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136">
       <c r="D136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G136" t="n">
         <v>211.0</v>
       </c>
       <c r="H136" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I136" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J136"/>
       <c r="K136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L136" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137">
       <c r="D137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G137" t="n">
         <v>194.0</v>
       </c>
       <c r="H137" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J137"/>
       <c r="K137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138">
       <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K138"/>
     </row>
     <row r="139">
       <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J139" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K139"/>
       <c r="L139" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140">
       <c r="D140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G140" t="n">
         <v>63.0</v>
       </c>
       <c r="H140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J140"/>
       <c r="K140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G141" t="n">
         <v>64.0</v>
       </c>
       <c r="H141" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J141"/>
       <c r="K141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L141" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G142" t="n">
         <v>208.0</v>
       </c>
       <c r="H142" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I142" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J142"/>
       <c r="K142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L142" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G143" t="n">
         <v>209.0</v>
       </c>
       <c r="H143" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I143" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J143"/>
       <c r="K143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L143" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="144">
       <c r="D144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G144" t="n">
         <v>84.0</v>
       </c>
       <c r="H144" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J144"/>
       <c r="K144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L144" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145">
       <c r="D145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G145" t="n">
         <v>98.0</v>
       </c>
       <c r="H145" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J145"/>
       <c r="K145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L145" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146">
       <c r="D146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G146" t="n">
         <v>136.0</v>
       </c>
       <c r="H146" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J146"/>
       <c r="K146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L146" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="147">
       <c r="D147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="n">
-        <v>5.0</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J147" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K147"/>
       <c r="L147" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148">
       <c r="D148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="n">
-        <v>2.0</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J148"/>
       <c r="K148"/>
       <c r="L148" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1.0</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J149"/>
       <c r="K149"/>
     </row>
     <row r="150">
       <c r="D150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J150" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K150"/>
       <c r="L150" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151">
       <c r="D151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G151" t="n">
         <v>249.0</v>
       </c>
       <c r="H151" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J151"/>
       <c r="K151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L151" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G152" t="n">
         <v>220.0</v>
       </c>
       <c r="H152" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J152"/>
       <c r="K152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153">
       <c r="D153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J153" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K153"/>
       <c r="L153" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154">
       <c r="D154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G154" t="n">
         <v>93.0</v>
       </c>
       <c r="H154" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J154"/>
       <c r="K154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L154" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G155" t="n">
         <v>210.0</v>
       </c>
       <c r="H155" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J155"/>
       <c r="K155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L155" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156">
       <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J156" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K156"/>
       <c r="L156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157">
       <c r="D157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G157" t="n">
         <v>192.0</v>
       </c>
       <c r="H157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J157"/>
       <c r="K157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L157" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G158" t="n">
         <v>171.0</v>
       </c>
       <c r="H158" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J158"/>
       <c r="K158" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L158" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G159" t="n">
         <v>157.0</v>
       </c>
       <c r="H159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J159"/>
       <c r="K159" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160">
       <c r="D160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K160"/>
       <c r="L160" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="161">
       <c r="D161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G161" t="n">
         <v>66.0</v>
       </c>
       <c r="H161" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J161"/>
       <c r="K161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L161" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G162" t="n">
         <v>68.0</v>
       </c>
       <c r="H162" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J162"/>
       <c r="K162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L162" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G163" t="n">
         <v>233.0</v>
       </c>
       <c r="H163" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J163"/>
       <c r="K163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L163" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G164" t="n">
         <v>185.0</v>
       </c>
       <c r="H164" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J164"/>
       <c r="K164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L164" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G165" t="n">
         <v>251.0</v>
       </c>
       <c r="H165" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J165"/>
       <c r="K165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L165" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G166" t="n">
         <v>252.0</v>
       </c>
       <c r="H166" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J166"/>
       <c r="K166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L166" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="167">
       <c r="D167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G167" t="n">
         <v>151.0</v>
       </c>
       <c r="H167" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J167"/>
       <c r="K167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L167" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="168">
       <c r="D168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G168" t="n">
         <v>207.0</v>
       </c>
       <c r="H168" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I168" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J168"/>
       <c r="K168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L168" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="169">
       <c r="D169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G169" t="n">
         <v>91.0</v>
       </c>
       <c r="H169" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J169"/>
       <c r="K169" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L169" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="170">
       <c r="D170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G170" t="n">
         <v>90.0</v>
       </c>
       <c r="H170" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I170" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J170"/>
       <c r="K170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L170" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171">
       <c r="D171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G171" t="n">
         <v>240.0</v>
       </c>
       <c r="H171" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I171" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J171"/>
       <c r="K171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L171" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172">
       <c r="D172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G172" t="n">
         <v>174.0</v>
       </c>
       <c r="H172" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J172"/>
       <c r="K172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L172" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173">
       <c r="D173" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G173" t="n">
         <v>241.0</v>
       </c>
       <c r="H173" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J173"/>
       <c r="K173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L173" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174">
       <c r="D174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G174" t="n">
         <v>238.0</v>
       </c>
       <c r="H174" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J174"/>
       <c r="K174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L174" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175">
       <c r="D175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G175" t="n">
         <v>206.0</v>
       </c>
       <c r="H175" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J175"/>
       <c r="K175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L175" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="176">
       <c r="D176" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G176" t="n">
         <v>170.0</v>
       </c>
       <c r="H176" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J176"/>
       <c r="K176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L176" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="177">
       <c r="D177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G177" t="n">
         <v>264.0</v>
       </c>
       <c r="H177" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J177"/>
       <c r="K177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L177" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178">
       <c r="D178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G178" t="n">
         <v>234.0</v>
       </c>
       <c r="H178" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J178"/>
       <c r="K178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L178" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179">
       <c r="D179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G179" t="n">
         <v>193.0</v>
       </c>
       <c r="H179" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J179"/>
       <c r="K179" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L179" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="180">
       <c r="D180" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G180" t="n">
         <v>95.0</v>
       </c>
       <c r="H180" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J180"/>
       <c r="K180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L180" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181">
       <c r="D181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J181" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K181"/>
       <c r="L181" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182">
       <c r="D182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G182" t="n">
         <v>190.0</v>
       </c>
       <c r="H182" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I182" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J182"/>
       <c r="K182" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L182" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G183" t="n">
         <v>189.0</v>
       </c>
       <c r="H183" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I183" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J183"/>
       <c r="K183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L183" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="184">
       <c r="D184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J184" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K184"/>
       <c r="L184" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="185">
       <c r="D185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G185" t="n">
         <v>218.0</v>
       </c>
       <c r="H185" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I185" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J185"/>
       <c r="K185" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L185" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G186" t="n">
         <v>217.0</v>
       </c>
       <c r="H186" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I186" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J186"/>
       <c r="K186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L186" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="187">
       <c r="D187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G187" t="n">
         <v>239.0</v>
       </c>
       <c r="H187" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J187"/>
       <c r="K187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L187" t="s">
         <v>3</v>
@@ -5166,230 +5047,227 @@
     </row>
     <row r="188">
       <c r="D188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I188" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J188" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K188"/>
       <c r="L188" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="189">
       <c r="D189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G189" t="n">
         <v>145.0</v>
       </c>
       <c r="H189" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J189"/>
       <c r="K189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L189" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G190" t="n">
         <v>128.0</v>
       </c>
       <c r="H190" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J190"/>
       <c r="K190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L190" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G191" t="n">
         <v>144.0</v>
       </c>
       <c r="H191" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I191" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J191"/>
       <c r="K191" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L191" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="192">
       <c r="D192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G192" t="n">
         <v>242.0</v>
       </c>
       <c r="H192" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I192" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J192"/>
       <c r="K192" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L192" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="193">
       <c r="D193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G193" t="n">
         <v>85.0</v>
       </c>
       <c r="H193" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I193" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J193"/>
       <c r="K193" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L193" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194">
       <c r="D194" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G194" t="n">
         <v>262.0</v>
       </c>
       <c r="H194" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I194" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J194"/>
       <c r="K194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L194" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="195">
       <c r="D195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G195" t="n">
         <v>215.0</v>
       </c>
       <c r="H195" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J195"/>
       <c r="K195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L195" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="196">
       <c r="D196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G196" t="n">
         <v>89.0</v>
       </c>
       <c r="H196" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I196" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J196"/>
       <c r="K196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L196" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="197">
       <c r="D197" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G197" t="n">
         <v>166.0</v>
       </c>
       <c r="H197" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I197" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J197"/>
       <c r="K197" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L197" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="198">
       <c r="D198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G198" t="n">
         <v>149.0</v>
       </c>
       <c r="H198" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J198"/>
       <c r="K198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L198" t="s">
         <v>5</v>
@@ -5397,800 +5275,776 @@
     </row>
     <row r="199">
       <c r="D199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G199" t="n">
         <v>96.0</v>
       </c>
       <c r="H199" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I199" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J199"/>
       <c r="K199" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L199" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="200">
       <c r="D200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G200" t="n">
         <v>268.0</v>
       </c>
       <c r="H200" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J200"/>
       <c r="K200" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L200" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="201">
       <c r="D201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G201" t="n">
         <v>148.0</v>
       </c>
       <c r="H201" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J201"/>
       <c r="K201" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L201" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="202">
       <c r="D202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G202" t="n">
         <v>129.0</v>
       </c>
       <c r="H202" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J202"/>
       <c r="K202" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L202" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="203">
       <c r="D203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G203" t="n">
         <v>187.0</v>
       </c>
       <c r="H203" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I203" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J203"/>
       <c r="K203" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L203" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="204">
       <c r="C204" t="s">
-        <v>15</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K204"/>
     </row>
     <row r="205">
       <c r="C205" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H205" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J205" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K205"/>
       <c r="L205" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="206">
       <c r="D206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G206" t="n">
         <v>202.0</v>
       </c>
       <c r="H206" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J206"/>
       <c r="K206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L206" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G207" t="n">
         <v>204.0</v>
       </c>
       <c r="H207" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I207" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J207"/>
       <c r="K207" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L207" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="208">
       <c r="D208" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G208" t="n">
         <v>175.0</v>
       </c>
       <c r="H208" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J208"/>
       <c r="K208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L208" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="209">
       <c r="D209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G209" t="n">
         <v>196.0</v>
       </c>
       <c r="H209" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I209" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J209"/>
       <c r="K209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L209" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="210">
       <c r="D210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G210" t="n">
         <v>248.0</v>
       </c>
       <c r="H210" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J210"/>
       <c r="K210" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L210" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211">
       <c r="D211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G211" t="n">
         <v>257.0</v>
       </c>
       <c r="H211" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I211" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J211"/>
       <c r="K211" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L211" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212">
       <c r="C212" t="s">
-        <v>15</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H212" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J212" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K212"/>
     </row>
     <row r="213">
       <c r="C213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G213" t="n">
         <v>77.0</v>
       </c>
       <c r="H213" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I213" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J213"/>
       <c r="K213" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L213" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214">
       <c r="D214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G214" t="n">
         <v>212.0</v>
       </c>
       <c r="H214" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I214" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J214"/>
       <c r="K214" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L214" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="215">
       <c r="D215" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G215" t="n">
         <v>73.0</v>
       </c>
       <c r="H215" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I215" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J215"/>
       <c r="K215" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L215" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" t="s">
-        <v>15</v>
-      </c>
-      <c r="G216" t="n">
-        <v>2.0</v>
+        <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J216" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K216"/>
     </row>
     <row r="217">
       <c r="C217" t="s">
-        <v>15</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J217" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K217"/>
       <c r="L217" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="218">
       <c r="D218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G218" t="n">
         <v>213.0</v>
       </c>
       <c r="H218" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J218"/>
       <c r="K218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L218" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G219" t="n">
         <v>244.0</v>
       </c>
       <c r="H219" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J219"/>
       <c r="K219" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G220" t="n">
         <v>245.0</v>
       </c>
       <c r="H220" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I220" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J220"/>
       <c r="K220" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L220" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221">
       <c r="D221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G221" t="n">
         <v>167.0</v>
       </c>
       <c r="H221" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I221" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J221"/>
       <c r="K221" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L221" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="222">
       <c r="D222" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G222" t="n">
         <v>247.0</v>
       </c>
       <c r="H222" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I222" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J222"/>
       <c r="K222" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L222" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="223">
       <c r="D223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G223" t="n">
         <v>83.0</v>
       </c>
       <c r="H223" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I223" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J223"/>
       <c r="K223" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L223" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="224">
       <c r="D224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G224" t="n">
         <v>243.0</v>
       </c>
       <c r="H224" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I224" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J224"/>
       <c r="K224" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L224" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="225">
       <c r="D225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G225" t="n">
         <v>246.0</v>
       </c>
       <c r="H225" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I225" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J225"/>
       <c r="K225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L225" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="226">
       <c r="D226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G226" t="n">
         <v>201.0</v>
       </c>
       <c r="H226" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I226" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J226"/>
       <c r="K226" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L226" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="227">
       <c r="C227" t="s">
-        <v>15</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I227" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J227" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K227"/>
     </row>
     <row r="228">
       <c r="C228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G228" t="n">
         <v>186.0</v>
       </c>
       <c r="H228" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I228" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J228"/>
       <c r="K228" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L228" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="229">
       <c r="D229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G229" t="n">
         <v>219.0</v>
       </c>
       <c r="H229" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I229" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J229"/>
       <c r="K229" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L229" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="230">
       <c r="D230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G230" t="n">
         <v>231.0</v>
       </c>
       <c r="H230" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I230" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J230"/>
       <c r="K230" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L230" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="231">
       <c r="D231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G231" t="n">
         <v>74.0</v>
       </c>
       <c r="H231" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I231" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J231"/>
       <c r="K231" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L231" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="232">
       <c r="C232" t="s">
-        <v>15</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H232" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K232"/>
     </row>
     <row r="233">
       <c r="C233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G233" t="n">
         <v>253.0</v>
       </c>
       <c r="H233" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I233" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J233"/>
       <c r="K233" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L233" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="234">
       <c r="D234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G234" t="n">
         <v>200.0</v>
       </c>
       <c r="H234" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I234" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J234"/>
       <c r="K234" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L234" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="235">
       <c r="C235" t="s">
-        <v>15</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.0</v>
+        <v>14</v>
       </c>
       <c r="H235" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J235" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K235"/>
     </row>
     <row r="236">
       <c r="C236" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G236" t="n">
         <v>70.0</v>
       </c>
       <c r="H236" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I236" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J236"/>
       <c r="K236" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L236" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="237">
       <c r="D237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G237" t="n">
         <v>72.0</v>
       </c>
       <c r="H237" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I237" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J237"/>
       <c r="K237" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L237" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/Output/ServiceMenu.xlsx
+++ b/Output/ServiceMenu.xlsx
@@ -12,26 +12,1271 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="425">
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="427">
+  <si>
+    <t>RICARICHE</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>menuTitle</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Telefonia Mobile</t>
+  </si>
+  <si>
+    <t>menuRow</t>
+  </si>
+  <si>
+    <t>ILIAD</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>12244</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>12098</t>
+  </si>
+  <si>
+    <t>TIM</t>
+  </si>
+  <si>
+    <t>18070</t>
+  </si>
+  <si>
+    <t>VODAFONE</t>
+  </si>
+  <si>
+    <t>12097</t>
+  </si>
+  <si>
+    <t>HO. MOBILE</t>
+  </si>
+  <si>
+    <t>12096</t>
+  </si>
+  <si>
+    <t>H3G</t>
+  </si>
+  <si>
+    <t>12093</t>
+  </si>
+  <si>
+    <t>POSTE MOBILE</t>
+  </si>
+  <si>
+    <t>12094</t>
+  </si>
+  <si>
+    <t>LYCA MOBILE</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>12199</t>
+  </si>
+  <si>
+    <t>LYCAMOBILE</t>
+  </si>
+  <si>
+    <t>11543</t>
+  </si>
+  <si>
+    <t>RICARICA</t>
+  </si>
+  <si>
+    <t>landingPage</t>
+  </si>
+  <si>
+    <t>5030</t>
+  </si>
+  <si>
+    <t>KENA</t>
+  </si>
+  <si>
+    <t>12238</t>
+  </si>
+  <si>
+    <t>COOP VOCE</t>
+  </si>
+  <si>
+    <t>12100</t>
+  </si>
+  <si>
+    <t>FASTWEB</t>
+  </si>
+  <si>
+    <t>12232</t>
+  </si>
+  <si>
+    <t>DIGI MOBIL</t>
+  </si>
+  <si>
+    <t>12256</t>
+  </si>
+  <si>
+    <t>UNO MOBILE</t>
+  </si>
+  <si>
+    <t>12207</t>
+  </si>
+  <si>
+    <t>DAILY TELECOM</t>
+  </si>
+  <si>
+    <t>12252</t>
+  </si>
+  <si>
+    <t>TISCALI MOBILE</t>
+  </si>
+  <si>
+    <t>18778</t>
+  </si>
+  <si>
+    <t>CUBACEL</t>
+  </si>
+  <si>
+    <t>12209</t>
+  </si>
+  <si>
+    <t>NAUTA</t>
+  </si>
+  <si>
+    <t>12213</t>
+  </si>
+  <si>
+    <t>REINCARCA MOBIL RICARICHE</t>
+  </si>
+  <si>
+    <t>12251</t>
+  </si>
+  <si>
+    <t>NOITEL RICARICHE</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>WEBCOM</t>
+  </si>
+  <si>
+    <t>12214</t>
+  </si>
+  <si>
+    <t>RABONA_MOBILE</t>
+  </si>
+  <si>
+    <t>12236</t>
+  </si>
+  <si>
+    <t>OPTIMA</t>
+  </si>
+  <si>
+    <t>12242</t>
+  </si>
+  <si>
+    <t>NT_MOBILE</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>Decatel</t>
+  </si>
+  <si>
+    <t>12250</t>
+  </si>
+  <si>
+    <t>VECTONE MOBILE</t>
+  </si>
+  <si>
+    <t>12237</t>
+  </si>
+  <si>
+    <t>YEPINGO</t>
+  </si>
+  <si>
+    <t>12243</t>
+  </si>
+  <si>
+    <t>GREENTELECOM</t>
+  </si>
+  <si>
+    <t>12111</t>
+  </si>
+  <si>
+    <t>BT MOBILE</t>
+  </si>
+  <si>
+    <t>12107</t>
+  </si>
+  <si>
+    <t>TERRA</t>
+  </si>
+  <si>
+    <t>12205</t>
+  </si>
+  <si>
+    <t>TALK360</t>
+  </si>
+  <si>
+    <t>12204</t>
+  </si>
+  <si>
+    <t>Carte Bancarie</t>
+  </si>
+  <si>
+    <t>UNICREDIT</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>QUI MULTIBANCA</t>
+  </si>
+  <si>
+    <t>13346</t>
+  </si>
+  <si>
+    <t>CARTASI</t>
+  </si>
+  <si>
+    <t>12258</t>
+  </si>
+  <si>
+    <t>CARTASI VODAF</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>PIN ON DEMAND DELIVERY AND ACTIVATION</t>
+  </si>
+  <si>
+    <t>13348</t>
+  </si>
+  <si>
+    <t>RICARICA SOLDO</t>
+  </si>
+  <si>
+    <t>18354</t>
+  </si>
+  <si>
+    <t>PLUTON</t>
+  </si>
+  <si>
+    <t>13350</t>
+  </si>
+  <si>
+    <t>RICARICHE BDS</t>
+  </si>
+  <si>
+    <t>13344</t>
+  </si>
+  <si>
+    <t>COMPASS PAY</t>
+  </si>
+  <si>
+    <t>18783</t>
+  </si>
+  <si>
+    <t>CARTE COMPASSPAY ADV</t>
+  </si>
+  <si>
+    <t>12240</t>
+  </si>
+  <si>
+    <t>CARTE FINDOMESTIC</t>
+  </si>
+  <si>
+    <t>18782</t>
+  </si>
+  <si>
+    <t>TSI</t>
+  </si>
+  <si>
+    <t>13354</t>
+  </si>
+  <si>
+    <t>Sisal.it</t>
+  </si>
+  <si>
+    <t>MatchPoint</t>
+  </si>
+  <si>
+    <t>tabGroup</t>
+  </si>
+  <si>
+    <t>19455</t>
+  </si>
+  <si>
+    <t>APERTURA</t>
+  </si>
+  <si>
+    <t>PRELIEVO</t>
+  </si>
+  <si>
+    <t>Carte Telefoniche</t>
+  </si>
+  <si>
+    <t>EDICARD</t>
+  </si>
+  <si>
+    <t>buttonGroup</t>
+  </si>
+  <si>
+    <t>19798</t>
+  </si>
+  <si>
+    <t>EDICARD AFRICA</t>
+  </si>
+  <si>
+    <t>19799</t>
+  </si>
+  <si>
+    <t>EDICARD ASIA</t>
+  </si>
+  <si>
+    <t>19800</t>
+  </si>
+  <si>
+    <t>EDICARD GLOBAL</t>
+  </si>
+  <si>
+    <t>19801</t>
+  </si>
+  <si>
+    <t>EDICARD LATINA</t>
+  </si>
+  <si>
+    <t>19802</t>
+  </si>
+  <si>
+    <t>EDICARD EUROu0026USA</t>
+  </si>
+  <si>
+    <t>19803</t>
+  </si>
+  <si>
+    <t>AMUNDO CUBA</t>
+  </si>
+  <si>
+    <t>12202</t>
+  </si>
+  <si>
+    <t>HAPPINESS PLUS</t>
+  </si>
+  <si>
+    <t>12306</t>
+  </si>
+  <si>
+    <t>TELECOM CARTE</t>
+  </si>
+  <si>
+    <t>6669</t>
+  </si>
+  <si>
+    <t>EASY AFRICA</t>
+  </si>
+  <si>
+    <t>13416</t>
+  </si>
+  <si>
+    <t>EASY ASIA</t>
+  </si>
+  <si>
+    <t>13417</t>
+  </si>
+  <si>
+    <t>EASY EAST EUROPE</t>
+  </si>
+  <si>
+    <t>13418</t>
+  </si>
+  <si>
+    <t>EASY SOUTH AMERICA</t>
+  </si>
+  <si>
+    <t>13419</t>
+  </si>
+  <si>
+    <t>WELCOME EXPO</t>
+  </si>
+  <si>
+    <t>13428</t>
+  </si>
+  <si>
+    <t>SISAL CALLYOU</t>
+  </si>
+  <si>
+    <t>12352</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>13334</t>
+  </si>
+  <si>
+    <t>ATTIVAZIONE</t>
+  </si>
+  <si>
+    <t>PRODUCT_CLIENT_CODE</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>13335</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>13337</t>
+  </si>
+  <si>
+    <t>Latina</t>
+  </si>
+  <si>
+    <t>13338</t>
+  </si>
+  <si>
+    <t>EU-USA</t>
+  </si>
+  <si>
+    <t>13336</t>
+  </si>
+  <si>
+    <t>RICARICHE EUTELIA</t>
+  </si>
+  <si>
+    <t>6671</t>
+  </si>
+  <si>
+    <t>EUTELIA AFRICA</t>
+  </si>
+  <si>
+    <t>13422</t>
+  </si>
+  <si>
+    <t>ACTIVATION</t>
+  </si>
+  <si>
+    <t>RECHARGE</t>
+  </si>
+  <si>
+    <t>EUTELIA ASIA</t>
+  </si>
+  <si>
+    <t>13423</t>
+  </si>
+  <si>
+    <t>EUTELIA GLOBAL</t>
+  </si>
+  <si>
+    <t>13424</t>
+  </si>
+  <si>
+    <t>EUTELIA AMERICA</t>
+  </si>
+  <si>
+    <t>13425</t>
+  </si>
+  <si>
+    <t>EUTELIA IT-OCSE</t>
+  </si>
+  <si>
+    <t>13437</t>
+  </si>
+  <si>
+    <t>ETNICOM</t>
+  </si>
+  <si>
+    <t>12305</t>
+  </si>
+  <si>
+    <t>ICTCARD MENÃ™</t>
+  </si>
+  <si>
+    <t>12353</t>
+  </si>
+  <si>
+    <t>PLUSONE</t>
+  </si>
+  <si>
+    <t>12200</t>
+  </si>
+  <si>
+    <t>TELETU</t>
+  </si>
+  <si>
+    <t>12253</t>
+  </si>
+  <si>
+    <t>Codici di Acquisto</t>
+  </si>
+  <si>
+    <t>AMAZON CASH</t>
+  </si>
+  <si>
+    <t>12228</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>12229</t>
+  </si>
+  <si>
+    <t>ITUNES</t>
+  </si>
+  <si>
+    <t>13400</t>
+  </si>
+  <si>
+    <t>SPOTIFY</t>
+  </si>
+  <si>
+    <t>17633</t>
+  </si>
+  <si>
+    <t>FLIXBUS</t>
+  </si>
+  <si>
+    <t>12234</t>
+  </si>
+  <si>
+    <t>XBOX</t>
+  </si>
+  <si>
+    <t>17634</t>
+  </si>
+  <si>
+    <t>PLAYSTATION PLUS</t>
+  </si>
+  <si>
+    <t>17636</t>
+  </si>
+  <si>
+    <t>PLAYSTATION STORE</t>
+  </si>
+  <si>
+    <t>17637</t>
+  </si>
+  <si>
+    <t>NINTENDO</t>
+  </si>
+  <si>
+    <t>17635</t>
+  </si>
+  <si>
+    <t>VOLAGRATIS</t>
+  </si>
+  <si>
+    <t>12235</t>
+  </si>
+  <si>
+    <t>SALABAM</t>
+  </si>
+  <si>
+    <t>12215</t>
+  </si>
+  <si>
+    <t>Pay TV</t>
+  </si>
+  <si>
+    <t>SKY RICARICHE</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>NETFLIX</t>
+  </si>
+  <si>
+    <t>12239</t>
+  </si>
+  <si>
+    <t>MEDIASET INFINITY</t>
+  </si>
+  <si>
+    <t>12203</t>
+  </si>
+  <si>
+    <t>CHILI TV</t>
+  </si>
+  <si>
+    <t>553</t>
+  </si>
+  <si>
+    <t>Altre Ricariche</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>19336</t>
+  </si>
+  <si>
+    <t>TELEPASS RICAR.</t>
+  </si>
+  <si>
+    <t>12198</t>
+  </si>
+  <si>
+    <t>730 E DINTORNI - PEC</t>
+  </si>
+  <si>
+    <t>12260</t>
+  </si>
+  <si>
+    <t>PAGAMENTI</t>
+  </si>
+  <si>
+    <t>Pagopa, bollo e tributi</t>
+  </si>
+  <si>
+    <t>DIGITPA</t>
+  </si>
+  <si>
+    <t>12279</t>
+  </si>
+  <si>
+    <t>EQUITALIA</t>
+  </si>
+  <si>
+    <t>13342</t>
+  </si>
+  <si>
+    <t>MULTE</t>
+  </si>
+  <si>
+    <t>12126</t>
+  </si>
+  <si>
+    <t>RECUP REGIONE LAZIO</t>
+  </si>
+  <si>
+    <t>12224</t>
+  </si>
+  <si>
+    <t>MULTE MILANO BOLLETTINI</t>
+  </si>
+  <si>
+    <t>13345</t>
+  </si>
+  <si>
+    <t>SORIS 2</t>
+  </si>
+  <si>
+    <t>13355</t>
+  </si>
+  <si>
+    <t>SOLORI BOLLETTINI</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>SORIT BOLLETTINI</t>
+  </si>
+  <si>
+    <t>12271</t>
+  </si>
+  <si>
+    <t>Bollette Utenze</t>
+  </si>
+  <si>
+    <t>ENEL MENÃ™</t>
+  </si>
+  <si>
+    <t>6656</t>
+  </si>
+  <si>
+    <t>ENEL ENERGIA</t>
+  </si>
+  <si>
+    <t>13321</t>
+  </si>
+  <si>
+    <t>ENEL SERVIZIO ELETTRICO</t>
+  </si>
+  <si>
+    <t>13351</t>
+  </si>
+  <si>
+    <t>RIMBORSI ENEL ENERGIA</t>
+  </si>
+  <si>
+    <t>13320</t>
+  </si>
+  <si>
+    <t>ENEL ELETTRICITAu0027 RIMBORSO</t>
+  </si>
+  <si>
+    <t>13352</t>
+  </si>
+  <si>
+    <t>TELECOM ITALIA</t>
+  </si>
+  <si>
+    <t>4948</t>
+  </si>
+  <si>
+    <t>TIM BOLLETTE</t>
+  </si>
+  <si>
+    <t>4949</t>
+  </si>
+  <si>
+    <t>MEDIASET Invoices</t>
+  </si>
+  <si>
+    <t>13401</t>
+  </si>
+  <si>
+    <t>Bollettini Premarcati</t>
+  </si>
+  <si>
+    <t>12349</t>
+  </si>
+  <si>
+    <t>STAMPA QUIETANZA</t>
+  </si>
+  <si>
+    <t>13415</t>
+  </si>
+  <si>
+    <t>ANNULLO</t>
+  </si>
+  <si>
+    <t>ESSEDIESSE MENÃ™</t>
+  </si>
+  <si>
+    <t>12302</t>
+  </si>
+  <si>
+    <t>ESSEDIESSE RMPP</t>
+  </si>
+  <si>
+    <t>13421</t>
+  </si>
+  <si>
+    <t>ESSEDIESSE BOLLETTINI</t>
+  </si>
+  <si>
+    <t>13420</t>
+  </si>
+  <si>
+    <t>HERA MENÃ™</t>
+  </si>
+  <si>
+    <t>6663</t>
+  </si>
+  <si>
+    <t>HERA BOLLETTE</t>
+  </si>
+  <si>
+    <t>12348</t>
+  </si>
+  <si>
+    <t>HERA BOLLETTINI</t>
+  </si>
+  <si>
+    <t>13438</t>
+  </si>
+  <si>
+    <t>A2A MENÃ™</t>
+  </si>
+  <si>
+    <t>6662</t>
+  </si>
+  <si>
+    <t>A2A CALORE E SERVIZI BOLLETTE</t>
+  </si>
+  <si>
+    <t>13413</t>
+  </si>
+  <si>
+    <t>A2A CICLO IDRICO BOLLETTE</t>
+  </si>
+  <si>
+    <t>13414</t>
+  </si>
+  <si>
+    <t>A2A ENERGIA BOLLETTE</t>
+  </si>
+  <si>
+    <t>13433</t>
+  </si>
+  <si>
+    <t>ACEA MENÃ™</t>
+  </si>
+  <si>
+    <t>6655</t>
+  </si>
+  <si>
+    <t>ACEA ATO2</t>
+  </si>
+  <si>
+    <t>13434</t>
+  </si>
+  <si>
+    <t>ACEA ATO5</t>
+  </si>
+  <si>
+    <t>13435</t>
+  </si>
+  <si>
+    <t>ACEA DISTRIBUZIONE</t>
+  </si>
+  <si>
+    <t>13343</t>
+  </si>
+  <si>
+    <t>ACEA</t>
+  </si>
+  <si>
+    <t>13353</t>
+  </si>
+  <si>
+    <t>ACEA ENERGIA ELETTRICA LIB.</t>
+  </si>
+  <si>
+    <t>13318</t>
+  </si>
+  <si>
+    <t>ACEA ENERGIA - VENDITA GAS</t>
+  </si>
+  <si>
+    <t>13319</t>
+  </si>
+  <si>
+    <t>ACQUALATINA</t>
+  </si>
+  <si>
+    <t>12259</t>
+  </si>
+  <si>
+    <t>ACQUEDOTTO DEL FIORA BOLLETTE</t>
+  </si>
+  <si>
+    <t>12277</t>
+  </si>
+  <si>
+    <t>ACQUEDOTTO LUCANO BOLLETTE</t>
+  </si>
+  <si>
+    <t>12227</t>
+  </si>
+  <si>
+    <t>AIM BOLLETTE</t>
+  </si>
+  <si>
+    <t>12125</t>
+  </si>
+  <si>
+    <t>AIRC BOLLETTINI</t>
+  </si>
+  <si>
+    <t>12291</t>
+  </si>
+  <si>
+    <t>BPS 2</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>BNL</t>
+  </si>
+  <si>
+    <t>12293</t>
+  </si>
+  <si>
+    <t>CONSAC BOLLETTE</t>
+  </si>
+  <si>
+    <t>12290</t>
+  </si>
+  <si>
+    <t>DOLOMITI ENERGIA BOLLETTE</t>
+  </si>
+  <si>
+    <t>12276</t>
+  </si>
+  <si>
+    <t>EDISON BOLLETTE</t>
+  </si>
+  <si>
+    <t>12262</t>
+  </si>
+  <si>
+    <t>ENEL X BOLLETTE</t>
+  </si>
+  <si>
+    <t>12188</t>
+  </si>
+  <si>
+    <t>ENERXENIA 2</t>
+  </si>
+  <si>
+    <t>12289</t>
+  </si>
+  <si>
+    <t>ENGIE BOLLETTE</t>
+  </si>
+  <si>
+    <t>12270</t>
+  </si>
+  <si>
+    <t>ENI BOLLETTE</t>
+  </si>
+  <si>
+    <t>12230</t>
+  </si>
+  <si>
+    <t>EON MENÃ™</t>
+  </si>
+  <si>
+    <t>13411</t>
+  </si>
+  <si>
+    <t>EON GAS</t>
+  </si>
+  <si>
+    <t>13323</t>
+  </si>
+  <si>
+    <t>EON ENERGIA ELETTRICA</t>
+  </si>
+  <si>
+    <t>13322</t>
+  </si>
+  <si>
+    <t>ESTENERGY MENÃ™</t>
+  </si>
+  <si>
+    <t>6659</t>
+  </si>
+  <si>
+    <t>ESTENERGY ENERGIA ELETTRICA</t>
+  </si>
+  <si>
+    <t>13330</t>
+  </si>
+  <si>
+    <t>ESTENERGY GAS</t>
+  </si>
+  <si>
+    <t>13331</t>
+  </si>
+  <si>
+    <t>GORI</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
+    <t>IREN MENÃ™</t>
+  </si>
+  <si>
+    <t>6664</t>
+  </si>
+  <si>
+    <t>IREN AMBIENTE SPA</t>
+  </si>
+  <si>
+    <t>12104</t>
+  </si>
+  <si>
+    <t>IREN MERCATO SPA</t>
+  </si>
+  <si>
+    <t>13426</t>
+  </si>
+  <si>
+    <t>IRETI SPA</t>
+  </si>
+  <si>
+    <t>12254</t>
+  </si>
+  <si>
+    <t>METAMER BOLLETTE</t>
+  </si>
+  <si>
+    <t>18781</t>
+  </si>
+  <si>
+    <t>MONDADORI BOLLETTINI</t>
+  </si>
+  <si>
+    <t>13349</t>
+  </si>
+  <si>
+    <t>OPTIMA BOLLETTE</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>SALERNO ENERGIA BOLLETTE</t>
+  </si>
+  <si>
+    <t>12316</t>
+  </si>
+  <si>
+    <t>SGR SERVIZI BOLLETTE</t>
+  </si>
+  <si>
+    <t>12226</t>
+  </si>
+  <si>
+    <t>SORGENIA</t>
+  </si>
+  <si>
+    <t>12261</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>TISCALI BOLLETTE</t>
+  </si>
+  <si>
+    <t>12231</t>
+  </si>
+  <si>
+    <t>UMBRA ACQUE</t>
+  </si>
+  <si>
+    <t>12303</t>
+  </si>
+  <si>
+    <t>VODAFONE BOLLETTE</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>WIND BOLLETTE</t>
+  </si>
+  <si>
+    <t>13429</t>
+  </si>
+  <si>
+    <t>WIND FISSO DEP</t>
+  </si>
+  <si>
+    <t>13430</t>
+  </si>
+  <si>
+    <t>Bollettini credito al consumo</t>
+  </si>
+  <si>
+    <t>FINDOMESTIC MENÃ™</t>
+  </si>
+  <si>
+    <t>6661</t>
+  </si>
+  <si>
+    <t>FINDOMESTIC BOLLETTINI</t>
+  </si>
+  <si>
+    <t>18779</t>
+  </si>
+  <si>
+    <t>FINDOMESTIC ACCORDI</t>
+  </si>
+  <si>
+    <t>18780</t>
+  </si>
+  <si>
+    <t>COMPASS BOLLETTINI</t>
+  </si>
+  <si>
+    <t>19436</t>
+  </si>
+  <si>
+    <t>AGOS BOLLETTINI</t>
+  </si>
+  <si>
+    <t>12272</t>
+  </si>
+  <si>
+    <t>SANTANDER</t>
+  </si>
+  <si>
+    <t>12301</t>
+  </si>
+  <si>
+    <t>FIDITALIA</t>
+  </si>
+  <si>
+    <t>12179</t>
+  </si>
+  <si>
+    <t>SKY</t>
+  </si>
+  <si>
+    <t>SKY FATTURE</t>
+  </si>
+  <si>
+    <t>18028</t>
+  </si>
+  <si>
+    <t>SKY DEPOSITO CAUZIONALE</t>
+  </si>
+  <si>
+    <t>13340</t>
+  </si>
+  <si>
+    <t>SKY ATTIVAZIONI</t>
+  </si>
+  <si>
+    <t>13339</t>
+  </si>
+  <si>
+    <t>Biglietteria</t>
+  </si>
+  <si>
+    <t>TRENITALIA MENÃ™</t>
+  </si>
+  <si>
+    <t>12298</t>
+  </si>
+  <si>
+    <t>EMISSIONI</t>
+  </si>
+  <si>
+    <t>13439</t>
+  </si>
+  <si>
+    <t>CAMBIO DATA</t>
+  </si>
+  <si>
+    <t>PLUSERVICE</t>
+  </si>
+  <si>
+    <t>13347</t>
+  </si>
+  <si>
+    <t>MARINO Bus</t>
+  </si>
+  <si>
+    <t>12300</t>
+  </si>
+  <si>
+    <t>IBUS</t>
+  </si>
+  <si>
+    <t>12225</t>
+  </si>
+  <si>
+    <t>INTERSAJ</t>
+  </si>
+  <si>
+    <t>12297</t>
+  </si>
+  <si>
+    <t>BIG-BUS</t>
+  </si>
+  <si>
+    <t>13436</t>
+  </si>
+  <si>
+    <t>BALTOUR</t>
+  </si>
+  <si>
+    <t>12274</t>
+  </si>
+  <si>
+    <t>Assicurazioni</t>
+  </si>
+  <si>
+    <t>FACILE.IT</t>
+  </si>
+  <si>
+    <t>12267</t>
+  </si>
+  <si>
+    <t>QUIXA</t>
+  </si>
+  <si>
+    <t>12287</t>
+  </si>
+  <si>
+    <t>LINEAR</t>
+  </si>
+  <si>
+    <t>12288</t>
+  </si>
+  <si>
+    <t>ZURICH CONNECT</t>
+  </si>
+  <si>
+    <t>12216</t>
+  </si>
+  <si>
+    <t>Altri pagamenti</t>
+  </si>
+  <si>
+    <t>ATM PIN AREA C</t>
+  </si>
+  <si>
+    <t>12347</t>
+  </si>
+  <si>
+    <t>ALLOPASS-HYPAY</t>
+  </si>
+  <si>
+    <t>12273</t>
+  </si>
+  <si>
+    <t>Donazioni</t>
+  </si>
+  <si>
+    <t>AIRC DONAZIONI</t>
+  </si>
+  <si>
+    <t>20398</t>
+  </si>
+  <si>
+    <t>UMBERTO VERONESI</t>
+  </si>
+  <si>
+    <t>Profondità0</t>
+  </si>
+  <si>
+    <t>Profondità1</t>
+  </si>
+  <si>
+    <t>Profondità2</t>
+  </si>
+  <si>
+    <t>Profondità3</t>
+  </si>
+  <si>
+    <t>Profondità4</t>
+  </si>
+  <si>
+    <t>Profondità5</t>
+  </si>
+  <si>
     <t>NodeID</t>
   </si>
   <si>
@@ -48,1245 +1293,6 @@
   </si>
   <si>
     <t>ResourceId</t>
-  </si>
-  <si>
-    <t>RICARICHE</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>menuTitle</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Telefonia Mobile</t>
-  </si>
-  <si>
-    <t>menuRow</t>
-  </si>
-  <si>
-    <t>ILIAD</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>PRIMARY</t>
-  </si>
-  <si>
-    <t>12244</t>
-  </si>
-  <si>
-    <t>WIND</t>
-  </si>
-  <si>
-    <t>12098</t>
-  </si>
-  <si>
-    <t>TIM</t>
-  </si>
-  <si>
-    <t>18070</t>
-  </si>
-  <si>
-    <t>VODAFONE</t>
-  </si>
-  <si>
-    <t>12097</t>
-  </si>
-  <si>
-    <t>HO. MOBILE</t>
-  </si>
-  <si>
-    <t>12096</t>
-  </si>
-  <si>
-    <t>H3G</t>
-  </si>
-  <si>
-    <t>12093</t>
-  </si>
-  <si>
-    <t>POSTE MOBILE</t>
-  </si>
-  <si>
-    <t>12094</t>
-  </si>
-  <si>
-    <t>LYCA MOBILE</t>
-  </si>
-  <si>
-    <t>PRODUCT</t>
-  </si>
-  <si>
-    <t>12199</t>
-  </si>
-  <si>
-    <t>LYCAMOBILE</t>
-  </si>
-  <si>
-    <t>11543</t>
-  </si>
-  <si>
-    <t>RICARICA</t>
-  </si>
-  <si>
-    <t>landingPage</t>
-  </si>
-  <si>
-    <t>5030</t>
-  </si>
-  <si>
-    <t>KENA</t>
-  </si>
-  <si>
-    <t>12238</t>
-  </si>
-  <si>
-    <t>COOP VOCE</t>
-  </si>
-  <si>
-    <t>12100</t>
-  </si>
-  <si>
-    <t>FASTWEB</t>
-  </si>
-  <si>
-    <t>12232</t>
-  </si>
-  <si>
-    <t>DIGI MOBIL</t>
-  </si>
-  <si>
-    <t>12256</t>
-  </si>
-  <si>
-    <t>UNO MOBILE</t>
-  </si>
-  <si>
-    <t>12207</t>
-  </si>
-  <si>
-    <t>DAILY TELECOM</t>
-  </si>
-  <si>
-    <t>12252</t>
-  </si>
-  <si>
-    <t>TISCALI MOBILE</t>
-  </si>
-  <si>
-    <t>18778</t>
-  </si>
-  <si>
-    <t>CUBACEL</t>
-  </si>
-  <si>
-    <t>12209</t>
-  </si>
-  <si>
-    <t>NAUTA</t>
-  </si>
-  <si>
-    <t>12213</t>
-  </si>
-  <si>
-    <t>REINCARCA MOBIL RICARICHE</t>
-  </si>
-  <si>
-    <t>12251</t>
-  </si>
-  <si>
-    <t>NOITEL RICARICHE</t>
-  </si>
-  <si>
-    <t>597</t>
-  </si>
-  <si>
-    <t>WEBCOM</t>
-  </si>
-  <si>
-    <t>12214</t>
-  </si>
-  <si>
-    <t>RABONA_MOBILE</t>
-  </si>
-  <si>
-    <t>12236</t>
-  </si>
-  <si>
-    <t>OPTIMA</t>
-  </si>
-  <si>
-    <t>12242</t>
-  </si>
-  <si>
-    <t>NT_MOBILE</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>Decatel</t>
-  </si>
-  <si>
-    <t>12250</t>
-  </si>
-  <si>
-    <t>VECTONE MOBILE</t>
-  </si>
-  <si>
-    <t>12237</t>
-  </si>
-  <si>
-    <t>YEPINGO</t>
-  </si>
-  <si>
-    <t>12243</t>
-  </si>
-  <si>
-    <t>GREENTELECOM</t>
-  </si>
-  <si>
-    <t>12111</t>
-  </si>
-  <si>
-    <t>BT MOBILE</t>
-  </si>
-  <si>
-    <t>12107</t>
-  </si>
-  <si>
-    <t>TERRA</t>
-  </si>
-  <si>
-    <t>12205</t>
-  </si>
-  <si>
-    <t>TALK360</t>
-  </si>
-  <si>
-    <t>12204</t>
-  </si>
-  <si>
-    <t>Carte Bancarie</t>
-  </si>
-  <si>
-    <t>UNICREDIT</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>QUI MULTIBANCA</t>
-  </si>
-  <si>
-    <t>13346</t>
-  </si>
-  <si>
-    <t>CARTASI</t>
-  </si>
-  <si>
-    <t>12258</t>
-  </si>
-  <si>
-    <t>CARTASI VODAF</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>PIN ON DEMAND DELIVERY AND ACTIVATION</t>
-  </si>
-  <si>
-    <t>13348</t>
-  </si>
-  <si>
-    <t>RICARICA SOLDO</t>
-  </si>
-  <si>
-    <t>18354</t>
-  </si>
-  <si>
-    <t>PLUTON</t>
-  </si>
-  <si>
-    <t>13350</t>
-  </si>
-  <si>
-    <t>RICARICHE BDS</t>
-  </si>
-  <si>
-    <t>13344</t>
-  </si>
-  <si>
-    <t>COMPASS PAY</t>
-  </si>
-  <si>
-    <t>18783</t>
-  </si>
-  <si>
-    <t>CARTE COMPASSPAY ADV</t>
-  </si>
-  <si>
-    <t>12240</t>
-  </si>
-  <si>
-    <t>CARTE FINDOMESTIC</t>
-  </si>
-  <si>
-    <t>18782</t>
-  </si>
-  <si>
-    <t>TSI</t>
-  </si>
-  <si>
-    <t>13354</t>
-  </si>
-  <si>
-    <t>Sisal.it</t>
-  </si>
-  <si>
-    <t>MatchPoint</t>
-  </si>
-  <si>
-    <t>tabGroup</t>
-  </si>
-  <si>
-    <t>19455</t>
-  </si>
-  <si>
-    <t>APERTURA</t>
-  </si>
-  <si>
-    <t>PRELIEVO</t>
-  </si>
-  <si>
-    <t>Carte Telefoniche</t>
-  </si>
-  <si>
-    <t>EDICARD</t>
-  </si>
-  <si>
-    <t>buttonGroup</t>
-  </si>
-  <si>
-    <t>19798</t>
-  </si>
-  <si>
-    <t>EDICARD AFRICA</t>
-  </si>
-  <si>
-    <t>19799</t>
-  </si>
-  <si>
-    <t>EDICARD ASIA</t>
-  </si>
-  <si>
-    <t>19800</t>
-  </si>
-  <si>
-    <t>EDICARD GLOBAL</t>
-  </si>
-  <si>
-    <t>19801</t>
-  </si>
-  <si>
-    <t>EDICARD LATINA</t>
-  </si>
-  <si>
-    <t>19802</t>
-  </si>
-  <si>
-    <t>EDICARD EUROu0026USA</t>
-  </si>
-  <si>
-    <t>19803</t>
-  </si>
-  <si>
-    <t>AMUNDO CUBA</t>
-  </si>
-  <si>
-    <t>12202</t>
-  </si>
-  <si>
-    <t>HAPPINESS PLUS</t>
-  </si>
-  <si>
-    <t>12306</t>
-  </si>
-  <si>
-    <t>TELECOM CARTE</t>
-  </si>
-  <si>
-    <t>6669</t>
-  </si>
-  <si>
-    <t>EASY AFRICA</t>
-  </si>
-  <si>
-    <t>13416</t>
-  </si>
-  <si>
-    <t>EASY ASIA</t>
-  </si>
-  <si>
-    <t>13417</t>
-  </si>
-  <si>
-    <t>EASY EAST EUROPE</t>
-  </si>
-  <si>
-    <t>13418</t>
-  </si>
-  <si>
-    <t>EASY SOUTH AMERICA</t>
-  </si>
-  <si>
-    <t>13419</t>
-  </si>
-  <si>
-    <t>WELCOME EXPO</t>
-  </si>
-  <si>
-    <t>13428</t>
-  </si>
-  <si>
-    <t>SISAL CALLYOU</t>
-  </si>
-  <si>
-    <t>12352</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>13334</t>
-  </si>
-  <si>
-    <t>ATTIVAZIONE</t>
-  </si>
-  <si>
-    <t>PRODUCT_CLIENT_CODE</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>13335</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>13337</t>
-  </si>
-  <si>
-    <t>Latina</t>
-  </si>
-  <si>
-    <t>13338</t>
-  </si>
-  <si>
-    <t>EU-USA</t>
-  </si>
-  <si>
-    <t>13336</t>
-  </si>
-  <si>
-    <t>RICARICHE EUTELIA</t>
-  </si>
-  <si>
-    <t>6671</t>
-  </si>
-  <si>
-    <t>EUTELIA AFRICA</t>
-  </si>
-  <si>
-    <t>13422</t>
-  </si>
-  <si>
-    <t>ACTIVATION</t>
-  </si>
-  <si>
-    <t>RECHARGE</t>
-  </si>
-  <si>
-    <t>EUTELIA ASIA</t>
-  </si>
-  <si>
-    <t>13423</t>
-  </si>
-  <si>
-    <t>EUTELIA GLOBAL</t>
-  </si>
-  <si>
-    <t>13424</t>
-  </si>
-  <si>
-    <t>EUTELIA AMERICA</t>
-  </si>
-  <si>
-    <t>13425</t>
-  </si>
-  <si>
-    <t>EUTELIA IT-OCSE</t>
-  </si>
-  <si>
-    <t>13437</t>
-  </si>
-  <si>
-    <t>ETNICOM</t>
-  </si>
-  <si>
-    <t>12305</t>
-  </si>
-  <si>
-    <t>ICTCARD MENÃ™</t>
-  </si>
-  <si>
-    <t>12353</t>
-  </si>
-  <si>
-    <t>PLUSONE</t>
-  </si>
-  <si>
-    <t>12200</t>
-  </si>
-  <si>
-    <t>TELETU</t>
-  </si>
-  <si>
-    <t>12253</t>
-  </si>
-  <si>
-    <t>Codici di Acquisto</t>
-  </si>
-  <si>
-    <t>AMAZON CASH</t>
-  </si>
-  <si>
-    <t>12228</t>
-  </si>
-  <si>
-    <t>AMAZON</t>
-  </si>
-  <si>
-    <t>12229</t>
-  </si>
-  <si>
-    <t>ITUNES</t>
-  </si>
-  <si>
-    <t>13400</t>
-  </si>
-  <si>
-    <t>SPOTIFY</t>
-  </si>
-  <si>
-    <t>17633</t>
-  </si>
-  <si>
-    <t>FLIXBUS</t>
-  </si>
-  <si>
-    <t>12234</t>
-  </si>
-  <si>
-    <t>XBOX</t>
-  </si>
-  <si>
-    <t>17634</t>
-  </si>
-  <si>
-    <t>PLAYSTATION PLUS</t>
-  </si>
-  <si>
-    <t>17636</t>
-  </si>
-  <si>
-    <t>PLAYSTATION STORE</t>
-  </si>
-  <si>
-    <t>17637</t>
-  </si>
-  <si>
-    <t>NINTENDO</t>
-  </si>
-  <si>
-    <t>17635</t>
-  </si>
-  <si>
-    <t>VOLAGRATIS</t>
-  </si>
-  <si>
-    <t>12235</t>
-  </si>
-  <si>
-    <t>SALABAM</t>
-  </si>
-  <si>
-    <t>12215</t>
-  </si>
-  <si>
-    <t>Pay TV</t>
-  </si>
-  <si>
-    <t>SKY RICARICHE</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>NETFLIX</t>
-  </si>
-  <si>
-    <t>12239</t>
-  </si>
-  <si>
-    <t>MEDIASET INFINITY</t>
-  </si>
-  <si>
-    <t>12203</t>
-  </si>
-  <si>
-    <t>CHILI TV</t>
-  </si>
-  <si>
-    <t>553</t>
-  </si>
-  <si>
-    <t>Altre Ricariche</t>
-  </si>
-  <si>
-    <t>BILL</t>
-  </si>
-  <si>
-    <t>19336</t>
-  </si>
-  <si>
-    <t>TELEPASS RICAR.</t>
-  </si>
-  <si>
-    <t>12198</t>
-  </si>
-  <si>
-    <t>730 E DINTORNI - PEC</t>
-  </si>
-  <si>
-    <t>12260</t>
-  </si>
-  <si>
-    <t>PAGAMENTI</t>
-  </si>
-  <si>
-    <t>Pagopa, bollo e tributi</t>
-  </si>
-  <si>
-    <t>DIGITPA</t>
-  </si>
-  <si>
-    <t>12279</t>
-  </si>
-  <si>
-    <t>EQUITALIA</t>
-  </si>
-  <si>
-    <t>13342</t>
-  </si>
-  <si>
-    <t>MULTE</t>
-  </si>
-  <si>
-    <t>12126</t>
-  </si>
-  <si>
-    <t>RECUP REGIONE LAZIO</t>
-  </si>
-  <si>
-    <t>12224</t>
-  </si>
-  <si>
-    <t>MULTE MILANO BOLLETTINI</t>
-  </si>
-  <si>
-    <t>13345</t>
-  </si>
-  <si>
-    <t>SORIS 2</t>
-  </si>
-  <si>
-    <t>13355</t>
-  </si>
-  <si>
-    <t>SOLORI BOLLETTINI</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
-    <t>SORIT BOLLETTINI</t>
-  </si>
-  <si>
-    <t>12271</t>
-  </si>
-  <si>
-    <t>Bollette Utenze</t>
-  </si>
-  <si>
-    <t>ENEL MENÃ™</t>
-  </si>
-  <si>
-    <t>6656</t>
-  </si>
-  <si>
-    <t>ENEL ENERGIA</t>
-  </si>
-  <si>
-    <t>13321</t>
-  </si>
-  <si>
-    <t>ENEL SERVIZIO ELETTRICO</t>
-  </si>
-  <si>
-    <t>13351</t>
-  </si>
-  <si>
-    <t>RIMBORSI ENEL ENERGIA</t>
-  </si>
-  <si>
-    <t>13320</t>
-  </si>
-  <si>
-    <t>ENEL ELETTRICITAu0027 RIMBORSO</t>
-  </si>
-  <si>
-    <t>13352</t>
-  </si>
-  <si>
-    <t>TELECOM ITALIA</t>
-  </si>
-  <si>
-    <t>4948</t>
-  </si>
-  <si>
-    <t>TIM BOLLETTE</t>
-  </si>
-  <si>
-    <t>4949</t>
-  </si>
-  <si>
-    <t>MEDIASET Invoices</t>
-  </si>
-  <si>
-    <t>13401</t>
-  </si>
-  <si>
-    <t>Bollettini Premarcati</t>
-  </si>
-  <si>
-    <t>12349</t>
-  </si>
-  <si>
-    <t>STAMPA QUIETANZA</t>
-  </si>
-  <si>
-    <t>13415</t>
-  </si>
-  <si>
-    <t>ANNULLO</t>
-  </si>
-  <si>
-    <t>ESSEDIESSE MENÃ™</t>
-  </si>
-  <si>
-    <t>12302</t>
-  </si>
-  <si>
-    <t>ESSEDIESSE RMPP</t>
-  </si>
-  <si>
-    <t>13421</t>
-  </si>
-  <si>
-    <t>ESSEDIESSE BOLLETTINI</t>
-  </si>
-  <si>
-    <t>13420</t>
-  </si>
-  <si>
-    <t>HERA MENÃ™</t>
-  </si>
-  <si>
-    <t>6663</t>
-  </si>
-  <si>
-    <t>HERA BOLLETTE</t>
-  </si>
-  <si>
-    <t>12348</t>
-  </si>
-  <si>
-    <t>HERA BOLLETTINI</t>
-  </si>
-  <si>
-    <t>13438</t>
-  </si>
-  <si>
-    <t>A2A MENÃ™</t>
-  </si>
-  <si>
-    <t>6662</t>
-  </si>
-  <si>
-    <t>A2A CALORE E SERVIZI BOLLETTE</t>
-  </si>
-  <si>
-    <t>13413</t>
-  </si>
-  <si>
-    <t>A2A CICLO IDRICO BOLLETTE</t>
-  </si>
-  <si>
-    <t>13414</t>
-  </si>
-  <si>
-    <t>A2A ENERGIA BOLLETTE</t>
-  </si>
-  <si>
-    <t>13433</t>
-  </si>
-  <si>
-    <t>ACEA MENÃ™</t>
-  </si>
-  <si>
-    <t>6655</t>
-  </si>
-  <si>
-    <t>ACEA ATO2</t>
-  </si>
-  <si>
-    <t>13434</t>
-  </si>
-  <si>
-    <t>ACEA ATO5</t>
-  </si>
-  <si>
-    <t>13435</t>
-  </si>
-  <si>
-    <t>ACEA DISTRIBUZIONE</t>
-  </si>
-  <si>
-    <t>13343</t>
-  </si>
-  <si>
-    <t>ACEA</t>
-  </si>
-  <si>
-    <t>13353</t>
-  </si>
-  <si>
-    <t>ACEA ENERGIA ELETTRICA LIB.</t>
-  </si>
-  <si>
-    <t>13318</t>
-  </si>
-  <si>
-    <t>ACEA ENERGIA - VENDITA GAS</t>
-  </si>
-  <si>
-    <t>13319</t>
-  </si>
-  <si>
-    <t>ACQUALATINA</t>
-  </si>
-  <si>
-    <t>12259</t>
-  </si>
-  <si>
-    <t>ACQUEDOTTO DEL FIORA BOLLETTE</t>
-  </si>
-  <si>
-    <t>12277</t>
-  </si>
-  <si>
-    <t>ACQUEDOTTO LUCANO BOLLETTE</t>
-  </si>
-  <si>
-    <t>12227</t>
-  </si>
-  <si>
-    <t>AIM BOLLETTE</t>
-  </si>
-  <si>
-    <t>12125</t>
-  </si>
-  <si>
-    <t>AIRC BOLLETTINI</t>
-  </si>
-  <si>
-    <t>12291</t>
-  </si>
-  <si>
-    <t>BPS 2</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>BNL</t>
-  </si>
-  <si>
-    <t>12293</t>
-  </si>
-  <si>
-    <t>CONSAC BOLLETTE</t>
-  </si>
-  <si>
-    <t>12290</t>
-  </si>
-  <si>
-    <t>DOLOMITI ENERGIA BOLLETTE</t>
-  </si>
-  <si>
-    <t>12276</t>
-  </si>
-  <si>
-    <t>EDISON BOLLETTE</t>
-  </si>
-  <si>
-    <t>12262</t>
-  </si>
-  <si>
-    <t>ENEL X BOLLETTE</t>
-  </si>
-  <si>
-    <t>12188</t>
-  </si>
-  <si>
-    <t>ENERXENIA 2</t>
-  </si>
-  <si>
-    <t>12289</t>
-  </si>
-  <si>
-    <t>ENGIE BOLLETTE</t>
-  </si>
-  <si>
-    <t>12270</t>
-  </si>
-  <si>
-    <t>ENI BOLLETTE</t>
-  </si>
-  <si>
-    <t>12230</t>
-  </si>
-  <si>
-    <t>EON MENÃ™</t>
-  </si>
-  <si>
-    <t>13411</t>
-  </si>
-  <si>
-    <t>EON GAS</t>
-  </si>
-  <si>
-    <t>13323</t>
-  </si>
-  <si>
-    <t>EON ENERGIA ELETTRICA</t>
-  </si>
-  <si>
-    <t>13322</t>
-  </si>
-  <si>
-    <t>ESTENERGY MENÃ™</t>
-  </si>
-  <si>
-    <t>6659</t>
-  </si>
-  <si>
-    <t>ESTENERGY ENERGIA ELETTRICA</t>
-  </si>
-  <si>
-    <t>13330</t>
-  </si>
-  <si>
-    <t>ESTENERGY GAS</t>
-  </si>
-  <si>
-    <t>13331</t>
-  </si>
-  <si>
-    <t>GORI</t>
-  </si>
-  <si>
-    <t>IREN MENÃ™</t>
-  </si>
-  <si>
-    <t>6664</t>
-  </si>
-  <si>
-    <t>IREN AMBIENTE SPA</t>
-  </si>
-  <si>
-    <t>12104</t>
-  </si>
-  <si>
-    <t>IREN MERCATO SPA</t>
-  </si>
-  <si>
-    <t>13426</t>
-  </si>
-  <si>
-    <t>IRETI SPA</t>
-  </si>
-  <si>
-    <t>12254</t>
-  </si>
-  <si>
-    <t>METAMER BOLLETTE</t>
-  </si>
-  <si>
-    <t>18781</t>
-  </si>
-  <si>
-    <t>MONDADORI BOLLETTINI</t>
-  </si>
-  <si>
-    <t>13349</t>
-  </si>
-  <si>
-    <t>OPTIMA BOLLETTE</t>
-  </si>
-  <si>
-    <t>519</t>
-  </si>
-  <si>
-    <t>SALERNO ENERGIA BOLLETTE</t>
-  </si>
-  <si>
-    <t>12316</t>
-  </si>
-  <si>
-    <t>SGR SERVIZI BOLLETTE</t>
-  </si>
-  <si>
-    <t>12226</t>
-  </si>
-  <si>
-    <t>SORGENIA</t>
-  </si>
-  <si>
-    <t>12261</t>
-  </si>
-  <si>
-    <t>TISCALI BOLLETTE</t>
-  </si>
-  <si>
-    <t>12231</t>
-  </si>
-  <si>
-    <t>UMBRA ACQUE</t>
-  </si>
-  <si>
-    <t>12303</t>
-  </si>
-  <si>
-    <t>VODAFONE BOLLETTE</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>WIND BOLLETTE</t>
-  </si>
-  <si>
-    <t>13429</t>
-  </si>
-  <si>
-    <t>WIND FISSO DEP</t>
-  </si>
-  <si>
-    <t>13430</t>
-  </si>
-  <si>
-    <t>Bollettini credito al consumo</t>
-  </si>
-  <si>
-    <t>FINDOMESTIC MENÃ™</t>
-  </si>
-  <si>
-    <t>6661</t>
-  </si>
-  <si>
-    <t>FINDOMESTIC BOLLETTINI</t>
-  </si>
-  <si>
-    <t>18779</t>
-  </si>
-  <si>
-    <t>FINDOMESTIC ACCORDI</t>
-  </si>
-  <si>
-    <t>18780</t>
-  </si>
-  <si>
-    <t>COMPASS BOLLETTINI</t>
-  </si>
-  <si>
-    <t>19436</t>
-  </si>
-  <si>
-    <t>AGOS BOLLETTINI</t>
-  </si>
-  <si>
-    <t>12272</t>
-  </si>
-  <si>
-    <t>SANTANDER</t>
-  </si>
-  <si>
-    <t>12301</t>
-  </si>
-  <si>
-    <t>FIDITALIA</t>
-  </si>
-  <si>
-    <t>12179</t>
-  </si>
-  <si>
-    <t>SKY</t>
-  </si>
-  <si>
-    <t>SKY FATTURE</t>
-  </si>
-  <si>
-    <t>18028</t>
-  </si>
-  <si>
-    <t>SKY DEPOSITO CAUZIONALE</t>
-  </si>
-  <si>
-    <t>13340</t>
-  </si>
-  <si>
-    <t>SKY ATTIVAZIONI</t>
-  </si>
-  <si>
-    <t>13339</t>
-  </si>
-  <si>
-    <t>Biglietteria</t>
-  </si>
-  <si>
-    <t>TRENITALIA MENÃ™</t>
-  </si>
-  <si>
-    <t>12298</t>
-  </si>
-  <si>
-    <t>EMISSIONI</t>
-  </si>
-  <si>
-    <t>13439</t>
-  </si>
-  <si>
-    <t>CAMBIO DATA</t>
-  </si>
-  <si>
-    <t>PLUSERVICE</t>
-  </si>
-  <si>
-    <t>13347</t>
-  </si>
-  <si>
-    <t>MARINO Bus</t>
-  </si>
-  <si>
-    <t>12300</t>
-  </si>
-  <si>
-    <t>IBUS</t>
-  </si>
-  <si>
-    <t>12225</t>
-  </si>
-  <si>
-    <t>INTERSAJ</t>
-  </si>
-  <si>
-    <t>12297</t>
-  </si>
-  <si>
-    <t>BIG-BUS</t>
-  </si>
-  <si>
-    <t>13436</t>
-  </si>
-  <si>
-    <t>BALTOUR</t>
-  </si>
-  <si>
-    <t>12274</t>
-  </si>
-  <si>
-    <t>Assicurazioni</t>
-  </si>
-  <si>
-    <t>FACILE.IT</t>
-  </si>
-  <si>
-    <t>12267</t>
-  </si>
-  <si>
-    <t>QUIXA</t>
-  </si>
-  <si>
-    <t>12287</t>
-  </si>
-  <si>
-    <t>LINEAR</t>
-  </si>
-  <si>
-    <t>12288</t>
-  </si>
-  <si>
-    <t>ZURICH CONNECT</t>
-  </si>
-  <si>
-    <t>12216</t>
-  </si>
-  <si>
-    <t>Altri pagamenti</t>
-  </si>
-  <si>
-    <t>ATM PIN AREA C</t>
-  </si>
-  <si>
-    <t>12347</t>
-  </si>
-  <si>
-    <t>ALLOPASS-HYPAY</t>
-  </si>
-  <si>
-    <t>12273</t>
-  </si>
-  <si>
-    <t>Donazioni</t>
-  </si>
-  <si>
-    <t>AIRC DONAZIONI</t>
-  </si>
-  <si>
-    <t>20398</t>
-  </si>
-  <si>
-    <t>UMBERTO VERONESI</t>
   </si>
 </sst>
 </file>
@@ -1339,4858 +1345,4858 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>417</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>418</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>421</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>422</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>423</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>424</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>425</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K2"/>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K3"/>
     </row>
     <row r="4">
       <c r="C4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>369.0</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>406.0</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J5"/>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>407.0</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>413.0</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="D8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>368.0</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>408.0</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J9"/>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>130.0</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>40.0</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
         <v>352.0</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>361.0</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J14"/>
       <c r="K14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>60.0</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>353.0</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>146.0</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>55.0</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>120.0</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>15.0</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>317.0</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J21"/>
       <c r="K21" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
         <v>325.0</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
         <v>374.0</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
         <v>372.0</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>326.0</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
         <v>358.0</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G27" t="n">
         <v>366.0</v>
       </c>
       <c r="H27" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
         <v>359.0</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J28"/>
       <c r="K28" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
         <v>373.0</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
         <v>360.0</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>367.0</v>
       </c>
       <c r="H31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>414.0</v>
       </c>
       <c r="H32" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L32" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
         <v>161.0</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J33"/>
       <c r="K33" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L33" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
         <v>307.0</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
         <v>306.0</v>
       </c>
       <c r="H35" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L35" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
         <v>2.0</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K36"/>
     </row>
     <row r="37">
       <c r="C37" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
         <v>418.0</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="D38" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G38" t="n">
         <v>404.0</v>
       </c>
       <c r="H38" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J38"/>
       <c r="K38" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="D39" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
         <v>405.0</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L39" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
         <v>410.0</v>
       </c>
       <c r="H40" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J40"/>
       <c r="K40" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L40" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="D41" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G41" t="n">
         <v>162.0</v>
       </c>
       <c r="H41" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42">
       <c r="D42" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>316.0</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L42" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43">
       <c r="D43" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
         <v>409.0</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L43" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44">
       <c r="D44" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
         <v>411.0</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45">
       <c r="D45" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
         <v>402.0</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I45" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46">
       <c r="D46" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
         <v>363.0</v>
       </c>
       <c r="H46" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J46"/>
       <c r="K46" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
       <c r="D47" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>401.0</v>
       </c>
       <c r="H47" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L47" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48">
       <c r="D48" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
         <v>354.0</v>
       </c>
       <c r="H48" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I48" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49">
       <c r="C49" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
         <v>3.0</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I49" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K49"/>
     </row>
     <row r="50">
       <c r="C50" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G50" t="n">
         <v>0.0</v>
       </c>
       <c r="H50" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I50" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51">
       <c r="D51" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
         <v>19.0</v>
       </c>
       <c r="H51" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="E52" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
         <v>412.0</v>
       </c>
       <c r="H52" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="I52" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="E53" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G53" t="n">
         <v>34.0</v>
       </c>
       <c r="H53" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I53" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G54" t="n">
         <v>4.0</v>
       </c>
       <c r="H54" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="I54" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K54"/>
     </row>
     <row r="55">
       <c r="C55" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
         <v>0.0</v>
       </c>
       <c r="H55" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="I55" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K55"/>
       <c r="L55" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56">
       <c r="D56" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
         <v>10.0</v>
       </c>
       <c r="H56" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I56" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57">
       <c r="E57" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
         <v>11.0</v>
       </c>
       <c r="H57" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I57" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58">
       <c r="E58" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G58" t="n">
         <v>12.0</v>
       </c>
       <c r="H58" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="I58" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L58" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59">
       <c r="E59" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
         <v>13.0</v>
       </c>
       <c r="H59" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="I59" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L59" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60">
       <c r="E60" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
         <v>14.0</v>
       </c>
       <c r="H60" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I60" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J60"/>
       <c r="K60" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L60" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61">
       <c r="D61" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
         <v>302.0</v>
       </c>
       <c r="H61" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J61"/>
       <c r="K61" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L61" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="D62" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
         <v>30.0</v>
       </c>
       <c r="H62" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I62" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J62"/>
       <c r="K62" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L62" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63">
       <c r="D63" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
         <v>0.0</v>
       </c>
       <c r="H63" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I63" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K63"/>
       <c r="L63" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64">
       <c r="D64" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
         <v>116.0</v>
       </c>
       <c r="H64" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I64" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
       <c r="E65" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G65" t="n">
         <v>117.0</v>
       </c>
       <c r="H65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="E66" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
         <v>118.0</v>
       </c>
       <c r="H66" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I66" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L66" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67">
       <c r="E67" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G67" t="n">
         <v>119.0</v>
       </c>
       <c r="H67" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I67" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L67" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
       <c r="E68" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
         <v>315.0</v>
       </c>
       <c r="H68" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="I68" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L68" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
       <c r="D69" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
         <v>2.0</v>
       </c>
       <c r="H69" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I69" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K69"/>
       <c r="L69" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
       <c r="D70" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
         <v>0.0</v>
       </c>
       <c r="H70" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I70" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K70"/>
       <c r="L70" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71">
       <c r="E71" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G71" t="n">
         <v>176.0</v>
       </c>
       <c r="H71" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I71" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G72" t="n">
         <v>176.0</v>
       </c>
       <c r="H72" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73">
       <c r="E73" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G73" t="n">
         <v>1.0</v>
       </c>
       <c r="H73" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
       <c r="E74" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G74" t="n">
         <v>177.0</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I74" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
         <v>177.0</v>
       </c>
       <c r="H75" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I75" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="E76" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G76" t="n">
         <v>2.0</v>
       </c>
       <c r="H76" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I76" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="E77" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
         <v>178.0</v>
       </c>
       <c r="H77" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I77" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G78" t="n">
         <v>178.0</v>
       </c>
       <c r="H78" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I78" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
       <c r="E79" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
         <v>3.0</v>
       </c>
       <c r="H79" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="I79" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
       <c r="E80" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
         <v>179.0</v>
       </c>
       <c r="H80" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I80" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
         <v>179.0</v>
       </c>
       <c r="H81" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
       <c r="E82" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G82" t="n">
         <v>4.0</v>
       </c>
       <c r="H82" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I82" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
       <c r="E83" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G83" t="n">
         <v>180.0</v>
       </c>
       <c r="H83" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I83" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
         <v>180.0</v>
       </c>
       <c r="H84" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I84" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="D85" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G85" t="n">
         <v>0.0</v>
       </c>
       <c r="H85" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="I85" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K85"/>
       <c r="L85" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86">
       <c r="D86" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
         <v>0.0</v>
       </c>
       <c r="H86" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="I86" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K86"/>
       <c r="L86" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87">
       <c r="E87" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G87" t="n">
         <v>21.0</v>
       </c>
       <c r="H87" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I87" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G88" t="n">
         <v>21.0</v>
       </c>
       <c r="H88" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I88" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J88"/>
       <c r="K88" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89">
       <c r="E89" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
         <v>1.0</v>
       </c>
       <c r="H89" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I89" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K89"/>
       <c r="L89" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90">
       <c r="E90" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G90" t="n">
         <v>22.0</v>
       </c>
       <c r="H90" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J90"/>
       <c r="K90" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G91" t="n">
         <v>22.0</v>
       </c>
       <c r="H91" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I91" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J91"/>
       <c r="K91" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92">
       <c r="E92" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
         <v>2.0</v>
       </c>
       <c r="H92" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I92" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K92"/>
       <c r="L92" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
       <c r="E93" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G93" t="n">
         <v>23.0</v>
       </c>
       <c r="H93" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I93" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J93"/>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G94" t="n">
         <v>23.0</v>
       </c>
       <c r="H94" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J94"/>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="E95" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
         <v>3.0</v>
       </c>
       <c r="H95" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I95" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K95"/>
       <c r="L95" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96">
       <c r="E96" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
         <v>24.0</v>
       </c>
       <c r="H96" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I96" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J96"/>
       <c r="K96" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="F97" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
         <v>24.0</v>
       </c>
       <c r="H97" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I97" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J97"/>
       <c r="K97" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="E98" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G98" t="n">
         <v>4.0</v>
       </c>
       <c r="H98" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I98" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K98"/>
       <c r="L98" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99">
       <c r="E99" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G99" t="n">
         <v>25.0</v>
       </c>
       <c r="H99" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I99" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J99"/>
       <c r="K99" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="F100" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G100" t="n">
         <v>25.0</v>
       </c>
       <c r="H100" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I100" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J100"/>
       <c r="K100" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="D101" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
         <v>27.0</v>
       </c>
       <c r="H101" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="I101" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J101"/>
       <c r="K101" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L101" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102">
       <c r="D102" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G102" t="n">
         <v>0.0</v>
       </c>
       <c r="H102" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I102" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K102"/>
       <c r="L102" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103">
       <c r="D103" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
         <v>322.0</v>
       </c>
       <c r="H103" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="I103" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J103"/>
       <c r="K103" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104">
       <c r="E104" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G104" t="n">
         <v>322.0</v>
       </c>
       <c r="H104" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I104" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J104"/>
       <c r="K104" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105">
       <c r="D105" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G105" t="n">
         <v>300.0</v>
       </c>
       <c r="H105" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I105" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J105"/>
       <c r="K105" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L105" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106">
       <c r="D106" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G106" t="n">
         <v>138.0</v>
       </c>
       <c r="H106" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I106" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J106"/>
       <c r="K106" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L106" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107">
       <c r="C107" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G107" t="n">
         <v>8.0</v>
       </c>
       <c r="H107" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I107" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K107"/>
     </row>
     <row r="108">
       <c r="C108" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
         <v>349.0</v>
       </c>
       <c r="H108" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="I108" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J108"/>
       <c r="K108" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L108" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109">
       <c r="D109" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G109" t="n">
         <v>350.0</v>
       </c>
       <c r="H109" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I109" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J109"/>
       <c r="K109" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L109" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110">
       <c r="D110" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G110" t="n">
         <v>355.0</v>
       </c>
       <c r="H110" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J110"/>
       <c r="K110" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L110" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="111">
       <c r="D111" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G111" t="n">
         <v>375.0</v>
       </c>
       <c r="H111" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I111" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J111"/>
       <c r="K111" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L111" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112">
       <c r="D112" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G112" t="n">
         <v>356.0</v>
       </c>
       <c r="H112" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I112" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J112"/>
       <c r="K112" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L112" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113">
       <c r="D113" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
         <v>376.0</v>
       </c>
       <c r="H113" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I113" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J113"/>
       <c r="K113" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L113" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114">
       <c r="D114" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
         <v>378.0</v>
       </c>
       <c r="H114" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I114" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J114"/>
       <c r="K114" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L114" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115">
       <c r="D115" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G115" t="n">
         <v>379.0</v>
       </c>
       <c r="H115" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I115" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J115"/>
       <c r="K115" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L115" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116">
       <c r="D116" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G116" t="n">
         <v>377.0</v>
       </c>
       <c r="H116" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="I116" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J116"/>
       <c r="K116" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L116" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117">
       <c r="D117" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G117" t="n">
         <v>357.0</v>
       </c>
       <c r="H117" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="I117" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J117"/>
       <c r="K117" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L117" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118">
       <c r="D118" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G118" t="n">
         <v>327.0</v>
       </c>
       <c r="H118" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I118" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J118"/>
       <c r="K118" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L118" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119">
       <c r="C119" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G119" t="n">
         <v>5.0</v>
       </c>
       <c r="H119" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="I119" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K119"/>
     </row>
     <row r="120">
       <c r="C120" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G120" t="n">
         <v>154.0</v>
       </c>
       <c r="H120" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I120" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J120"/>
       <c r="K120" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L120" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121">
       <c r="D121" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G121" t="n">
         <v>362.0</v>
       </c>
       <c r="H121" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="I121" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J121"/>
       <c r="K121" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L121" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122">
       <c r="D122" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G122" t="n">
         <v>305.0</v>
       </c>
       <c r="H122" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I122" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J122"/>
       <c r="K122" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L122" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123">
       <c r="D123" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G123" t="n">
         <v>323.0</v>
       </c>
       <c r="H123" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I123" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J123"/>
       <c r="K123" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L123" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="124">
       <c r="C124" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G124" t="n">
         <v>7.0</v>
       </c>
       <c r="H124" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="I124" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K124"/>
     </row>
     <row r="125">
       <c r="C125" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G125" t="n">
         <v>417.0</v>
       </c>
       <c r="H125" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="I125" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J125"/>
       <c r="K125" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L125" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126">
       <c r="D126" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
         <v>31.0</v>
       </c>
       <c r="H126" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="I126" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J126"/>
       <c r="K126" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L126" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127">
       <c r="D127" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G127" t="n">
         <v>163.0</v>
       </c>
       <c r="H127" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I127" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J127"/>
       <c r="K127" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L127" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G128" t="n">
         <v>0.0</v>
       </c>
       <c r="H128" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="I128" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K128"/>
     </row>
     <row r="129">
       <c r="B129" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G129" t="n">
         <v>0.0</v>
       </c>
       <c r="H129" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="I129" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K129"/>
     </row>
     <row r="130">
       <c r="C130" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
         <v>216.0</v>
       </c>
       <c r="H130" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="I130" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J130"/>
       <c r="K130" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131">
       <c r="D131" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G131" t="n">
         <v>150.0</v>
       </c>
       <c r="H131" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="I131" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J131"/>
       <c r="K131" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132">
       <c r="D132" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G132" t="n">
         <v>99.0</v>
       </c>
       <c r="H132" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="I132" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J132"/>
       <c r="K132" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L132" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133">
       <c r="D133" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G133" t="n">
         <v>79.0</v>
       </c>
       <c r="H133" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="I133" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J133"/>
       <c r="K133" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L133" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134">
       <c r="D134" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G134" t="n">
         <v>267.0</v>
       </c>
       <c r="H134" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="I134" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J134"/>
       <c r="K134" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L134" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135">
       <c r="D135" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G135" t="n">
         <v>71.0</v>
       </c>
       <c r="H135" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I135" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J135"/>
       <c r="K135" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="136">
       <c r="D136" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G136" t="n">
         <v>211.0</v>
       </c>
       <c r="H136" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="I136" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J136"/>
       <c r="K136" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137">
       <c r="D137" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G137" t="n">
         <v>194.0</v>
       </c>
       <c r="H137" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I137" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J137"/>
       <c r="K137" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L137" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="138">
       <c r="C138" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G138" t="n">
         <v>0.0</v>
       </c>
       <c r="H138" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="I138" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K138"/>
     </row>
     <row r="139">
       <c r="C139" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G139" t="n">
         <v>0.0</v>
       </c>
       <c r="H139" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="I139" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K139"/>
       <c r="L139" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140">
       <c r="D140" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G140" t="n">
         <v>63.0</v>
       </c>
       <c r="H140" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="I140" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J140"/>
       <c r="K140" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L140" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141">
       <c r="E141" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G141" t="n">
         <v>64.0</v>
       </c>
       <c r="H141" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I141" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J141"/>
       <c r="K141" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L141" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142">
       <c r="E142" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
         <v>208.0</v>
       </c>
       <c r="H142" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I142" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J142"/>
       <c r="K142" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L142" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="143">
       <c r="E143" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G143" t="n">
         <v>209.0</v>
       </c>
       <c r="H143" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="I143" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J143"/>
       <c r="K143" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L143" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144">
       <c r="D144" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G144" t="n">
         <v>84.0</v>
       </c>
       <c r="H144" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="I144" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J144"/>
       <c r="K144" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L144" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145">
       <c r="D145" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G145" t="n">
         <v>98.0</v>
       </c>
       <c r="H145" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J145"/>
       <c r="K145" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L145" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146">
       <c r="D146" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G146" t="n">
         <v>136.0</v>
       </c>
       <c r="H146" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I146" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J146"/>
       <c r="K146" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147">
       <c r="D147" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G147" t="n">
         <v>5.0</v>
       </c>
       <c r="H147" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I147" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K147"/>
       <c r="L147" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="148">
       <c r="D148" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
         <v>2.0</v>
       </c>
       <c r="H148" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="I148" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J148"/>
       <c r="K148"/>
       <c r="L148" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149">
       <c r="E149" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G149" t="n">
         <v>1.0</v>
       </c>
       <c r="H149" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I149" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J149"/>
       <c r="K149"/>
     </row>
     <row r="150">
       <c r="D150" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G150" t="n">
         <v>0.0</v>
       </c>
       <c r="H150" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I150" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K150"/>
       <c r="L150" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="151">
       <c r="D151" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G151" t="n">
         <v>249.0</v>
       </c>
       <c r="H151" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="I151" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J151"/>
       <c r="K151" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L151" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152">
       <c r="E152" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G152" t="n">
         <v>220.0</v>
       </c>
       <c r="H152" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="I152" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J152"/>
       <c r="K152" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="153">
       <c r="D153" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G153" t="n">
         <v>0.0</v>
       </c>
       <c r="H153" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I153" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K153"/>
       <c r="L153" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154">
       <c r="D154" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G154" t="n">
         <v>93.0</v>
       </c>
       <c r="H154" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="I154" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J154"/>
       <c r="K154" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L154" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155">
       <c r="E155" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G155" t="n">
         <v>210.0</v>
       </c>
       <c r="H155" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I155" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J155"/>
       <c r="K155" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L155" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156">
       <c r="D156" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G156" t="n">
         <v>0.0</v>
       </c>
       <c r="H156" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="I156" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K156"/>
       <c r="L156" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="157">
       <c r="D157" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G157" t="n">
         <v>192.0</v>
       </c>
       <c r="H157" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I157" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J157"/>
       <c r="K157" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L157" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158">
       <c r="E158" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G158" t="n">
         <v>171.0</v>
       </c>
       <c r="H158" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="I158" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J158"/>
       <c r="K158" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L158" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159">
       <c r="E159" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G159" t="n">
         <v>157.0</v>
       </c>
       <c r="H159" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="I159" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J159"/>
       <c r="K159" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L159" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160">
       <c r="D160" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
         <v>0.0</v>
       </c>
       <c r="H160" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="I160" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K160"/>
       <c r="L160" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161">
       <c r="D161" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G161" t="n">
         <v>66.0</v>
       </c>
       <c r="H161" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I161" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J161"/>
       <c r="K161" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L161" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="162">
       <c r="E162" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G162" t="n">
         <v>68.0</v>
       </c>
       <c r="H162" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="I162" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J162"/>
       <c r="K162" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L162" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163">
       <c r="E163" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G163" t="n">
         <v>233.0</v>
       </c>
       <c r="H163" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="I163" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J163"/>
       <c r="K163" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L163" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164">
       <c r="E164" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G164" t="n">
         <v>185.0</v>
       </c>
       <c r="H164" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="I164" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J164"/>
       <c r="K164" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L164" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="165">
       <c r="E165" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G165" t="n">
         <v>251.0</v>
       </c>
       <c r="H165" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="I165" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J165"/>
       <c r="K165" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166">
       <c r="E166" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G166" t="n">
         <v>252.0</v>
       </c>
       <c r="H166" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="I166" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J166"/>
       <c r="K166" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L166" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167">
       <c r="D167" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G167" t="n">
         <v>151.0</v>
       </c>
       <c r="H167" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="I167" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J167"/>
       <c r="K167" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L167" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="168">
       <c r="D168" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G168" t="n">
         <v>207.0</v>
       </c>
       <c r="H168" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="I168" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J168"/>
       <c r="K168" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L168" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="169">
       <c r="D169" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G169" t="n">
         <v>91.0</v>
       </c>
       <c r="H169" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="I169" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J169"/>
       <c r="K169" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L169" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170">
       <c r="D170" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G170" t="n">
         <v>90.0</v>
       </c>
       <c r="H170" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="I170" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J170"/>
       <c r="K170" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L170" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="171">
       <c r="D171" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G171" t="n">
         <v>240.0</v>
       </c>
       <c r="H171" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="I171" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J171"/>
       <c r="K171" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L171" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="172">
       <c r="D172" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G172" t="n">
         <v>174.0</v>
       </c>
       <c r="H172" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="I172" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J172"/>
       <c r="K172" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L172" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="173">
       <c r="D173" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G173" t="n">
         <v>241.0</v>
       </c>
       <c r="H173" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="I173" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J173"/>
       <c r="K173" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L173" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="174">
       <c r="D174" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G174" t="n">
         <v>238.0</v>
       </c>
       <c r="H174" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="I174" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J174"/>
       <c r="K174" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L174" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="175">
       <c r="D175" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G175" t="n">
         <v>206.0</v>
       </c>
       <c r="H175" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I175" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J175"/>
       <c r="K175" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L175" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="176">
       <c r="D176" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G176" t="n">
         <v>170.0</v>
       </c>
       <c r="H176" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="I176" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J176"/>
       <c r="K176" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L176" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="177">
       <c r="D177" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G177" t="n">
         <v>264.0</v>
       </c>
       <c r="H177" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="I177" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J177"/>
       <c r="K177" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L177" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="178">
       <c r="D178" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G178" t="n">
         <v>234.0</v>
       </c>
       <c r="H178" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="I178" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J178"/>
       <c r="K178" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L178" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="179">
       <c r="D179" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G179" t="n">
         <v>193.0</v>
       </c>
       <c r="H179" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="I179" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J179"/>
       <c r="K179" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L179" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="180">
       <c r="D180" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G180" t="n">
         <v>95.0</v>
       </c>
       <c r="H180" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="I180" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J180"/>
       <c r="K180" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L180" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181">
       <c r="D181" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G181" t="n">
         <v>0.0</v>
       </c>
       <c r="H181" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="I181" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K181"/>
       <c r="L181" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="182">
       <c r="D182" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G182" t="n">
         <v>190.0</v>
       </c>
       <c r="H182" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="I182" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J182"/>
       <c r="K182" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L182" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="183">
       <c r="E183" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G183" t="n">
         <v>189.0</v>
       </c>
       <c r="H183" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="I183" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J183"/>
       <c r="K183" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L183" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="184">
       <c r="D184" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G184" t="n">
         <v>0.0</v>
       </c>
       <c r="H184" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="I184" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K184"/>
       <c r="L184" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="185">
       <c r="D185" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G185" t="n">
         <v>218.0</v>
       </c>
       <c r="H185" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="I185" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J185"/>
       <c r="K185" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L185" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186">
       <c r="E186" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G186" t="n">
         <v>217.0</v>
       </c>
       <c r="H186" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="I186" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J186"/>
       <c r="K186" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L186" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="187">
       <c r="D187" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G187" t="n">
         <v>239.0</v>
       </c>
       <c r="H187" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="I187" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J187"/>
       <c r="K187" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>3</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188">
       <c r="D188" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G188" t="n">
         <v>0.0</v>
       </c>
       <c r="H188" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I188" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K188"/>
       <c r="L188" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="189">
       <c r="D189" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G189" t="n">
         <v>145.0</v>
       </c>
       <c r="H189" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="I189" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J189"/>
       <c r="K189" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L189" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="190">
       <c r="E190" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G190" t="n">
         <v>128.0</v>
       </c>
       <c r="H190" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="I190" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J190"/>
       <c r="K190" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L190" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="191">
       <c r="E191" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G191" t="n">
         <v>144.0</v>
       </c>
       <c r="H191" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="I191" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J191"/>
       <c r="K191" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L191" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="192">
       <c r="D192" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G192" t="n">
         <v>242.0</v>
       </c>
       <c r="H192" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="I192" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J192"/>
       <c r="K192" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L192" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="193">
       <c r="D193" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G193" t="n">
         <v>85.0</v>
       </c>
       <c r="H193" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="I193" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J193"/>
       <c r="K193" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L193" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="194">
       <c r="D194" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G194" t="n">
         <v>262.0</v>
       </c>
       <c r="H194" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I194" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J194"/>
       <c r="K194" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L194" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="195">
       <c r="D195" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G195" t="n">
         <v>215.0</v>
       </c>
       <c r="H195" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="I195" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J195"/>
       <c r="K195" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="196">
       <c r="D196" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G196" t="n">
         <v>89.0</v>
       </c>
       <c r="H196" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="I196" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J196"/>
       <c r="K196" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L196" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="197">
       <c r="D197" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G197" t="n">
         <v>166.0</v>
       </c>
       <c r="H197" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="I197" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J197"/>
       <c r="K197" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="198">
       <c r="D198" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G198" t="n">
         <v>149.0</v>
       </c>
       <c r="H198" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I198" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J198"/>
       <c r="K198" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L198" t="s">
-        <v>5</v>
+        <v>346</v>
       </c>
     </row>
     <row r="199">
       <c r="D199" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G199" t="n">
         <v>96.0</v>
       </c>
       <c r="H199" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="I199" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J199"/>
       <c r="K199" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L199" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="200">
       <c r="D200" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G200" t="n">
         <v>268.0</v>
       </c>
       <c r="H200" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I200" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J200"/>
       <c r="K200" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L200" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201">
       <c r="D201" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G201" t="n">
         <v>148.0</v>
       </c>
       <c r="H201" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="I201" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J201"/>
       <c r="K201" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L201" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="202">
       <c r="D202" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G202" t="n">
         <v>129.0</v>
       </c>
       <c r="H202" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="I202" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J202"/>
       <c r="K202" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L202" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="203">
       <c r="D203" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G203" t="n">
         <v>187.0</v>
       </c>
       <c r="H203" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="I203" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J203"/>
       <c r="K203" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L203" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="204">
       <c r="C204" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G204" t="n">
         <v>0.0</v>
       </c>
       <c r="H204" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="I204" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K204"/>
     </row>
     <row r="205">
       <c r="C205" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G205" t="n">
         <v>0.0</v>
       </c>
       <c r="H205" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="I205" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="K205"/>
       <c r="L205" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206">
       <c r="D206" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G206" t="n">
         <v>202.0</v>
       </c>
       <c r="H206" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I206" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J206"/>
       <c r="K206" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L206" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="207">
       <c r="E207" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G207" t="n">
         <v>204.0</v>
       </c>
       <c r="H207" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="I207" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J207"/>
       <c r="K207" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L207" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="208">
       <c r="D208" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G208" t="n">
         <v>175.0</v>
       </c>
       <c r="H208" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="I208" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J208"/>
       <c r="K208" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L208" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="209">
       <c r="D209" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G209" t="n">
         <v>196.0</v>
       </c>
       <c r="H209" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I209" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J209"/>
       <c r="K209" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L209" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="210">
       <c r="D210" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G210" t="n">
         <v>248.0</v>
       </c>
       <c r="H210" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="I210" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J210"/>
       <c r="K210" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L210" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="211">
       <c r="D211" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G211" t="n">
         <v>257.0</v>
       </c>
       <c r="H211" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="I211" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J211"/>
       <c r="K211" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L211" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212">
       <c r="C212" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G212" t="n">
         <v>0.0</v>
       </c>
       <c r="H212" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="I212" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K212"/>
     </row>
     <row r="213">
       <c r="C213" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G213" t="n">
         <v>77.0</v>
       </c>
       <c r="H213" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I213" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J213"/>
       <c r="K213" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="214">
       <c r="D214" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G214" t="n">
         <v>212.0</v>
       </c>
       <c r="H214" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="I214" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J214"/>
       <c r="K214" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L214" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215">
       <c r="D215" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G215" t="n">
         <v>73.0</v>
       </c>
       <c r="H215" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="I215" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J215"/>
       <c r="K215" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L215" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216">
       <c r="C216" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G216" t="n">
         <v>2.0</v>
       </c>
       <c r="H216" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="I216" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K216"/>
     </row>
     <row r="217">
       <c r="C217" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G217" t="n">
         <v>0.0</v>
       </c>
       <c r="H217" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I217" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K217"/>
       <c r="L217" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="218">
       <c r="D218" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G218" t="n">
         <v>213.0</v>
       </c>
       <c r="H218" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="I218" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J218"/>
       <c r="K218" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L218" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="219">
       <c r="E219" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G219" t="n">
         <v>244.0</v>
       </c>
       <c r="H219" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="I219" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J219"/>
       <c r="K219" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="220">
       <c r="E220" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G220" t="n">
         <v>245.0</v>
       </c>
       <c r="H220" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="I220" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J220"/>
       <c r="K220" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L220" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="221">
       <c r="D221" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G221" t="n">
         <v>167.0</v>
       </c>
       <c r="H221" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="I221" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J221"/>
       <c r="K221" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L221" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222">
       <c r="D222" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G222" t="n">
         <v>247.0</v>
       </c>
       <c r="H222" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="I222" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J222"/>
       <c r="K222" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L222" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="223">
       <c r="D223" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G223" t="n">
         <v>83.0</v>
       </c>
       <c r="H223" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="I223" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J223"/>
       <c r="K223" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L223" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="224">
       <c r="D224" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G224" t="n">
         <v>243.0</v>
       </c>
       <c r="H224" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="I224" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J224"/>
       <c r="K224" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L224" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="225">
       <c r="D225" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G225" t="n">
         <v>246.0</v>
       </c>
       <c r="H225" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I225" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J225"/>
       <c r="K225" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L225" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="226">
       <c r="D226" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G226" t="n">
         <v>201.0</v>
       </c>
       <c r="H226" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="I226" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J226"/>
       <c r="K226" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L226" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="227">
       <c r="C227" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G227" t="n">
         <v>0.0</v>
       </c>
       <c r="H227" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I227" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K227"/>
     </row>
     <row r="228">
       <c r="C228" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G228" t="n">
         <v>186.0</v>
       </c>
       <c r="H228" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I228" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J228"/>
       <c r="K228" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L228" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="229">
       <c r="D229" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G229" t="n">
         <v>219.0</v>
       </c>
       <c r="H229" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="I229" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J229"/>
       <c r="K229" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L229" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="230">
       <c r="D230" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G230" t="n">
         <v>231.0</v>
       </c>
       <c r="H230" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="I230" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J230"/>
       <c r="K230" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L230" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="231">
       <c r="D231" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G231" t="n">
         <v>74.0</v>
       </c>
       <c r="H231" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="I231" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J231"/>
       <c r="K231" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L231" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="232">
       <c r="C232" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G232" t="n">
         <v>0.0</v>
       </c>
       <c r="H232" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="I232" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K232"/>
     </row>
     <row r="233">
       <c r="C233" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G233" t="n">
         <v>253.0</v>
       </c>
       <c r="H233" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="I233" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J233"/>
       <c r="K233" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L233" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="234">
       <c r="D234" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G234" t="n">
         <v>200.0</v>
       </c>
       <c r="H234" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="I234" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J234"/>
       <c r="K234" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L234" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="235">
       <c r="C235" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G235" t="n">
         <v>0.0</v>
       </c>
       <c r="H235" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="I235" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J235" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K235"/>
     </row>
     <row r="236">
       <c r="C236" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G236" t="n">
         <v>70.0</v>
       </c>
       <c r="H236" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I236" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J236"/>
       <c r="K236" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="237">
       <c r="D237" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G237" t="n">
         <v>72.0</v>
       </c>
       <c r="H237" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="I237" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J237"/>
       <c r="K237" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/Output/ServiceMenu.xlsx
+++ b/Output/ServiceMenu.xlsx
@@ -1325,12 +1325,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="6" max="6" width="4.37890625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="41.50390625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.28125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="9.33984375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="6.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2066,7 +2061,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="G36" t="s">
@@ -2333,7 +2328,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="C49" t="s">
+      <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="G49" t="s">
@@ -2420,7 +2415,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="D54" t="s">
+      <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="G54" t="s">
@@ -2435,7 +2430,7 @@
       <c r="J54"/>
     </row>
     <row r="55">
-      <c r="D55" t="s">
+      <c r="C55" t="s">
         <v>3</v>
       </c>
       <c r="G55" t="s">
@@ -2558,7 +2553,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>3</v>
       </c>
       <c r="F61" t="n">
@@ -2579,7 +2574,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>3</v>
       </c>
       <c r="F62" t="n">
@@ -2600,7 +2595,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>3</v>
       </c>
       <c r="G63" t="s">
@@ -2723,7 +2718,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="D69" t="s">
+      <c r="C69" t="s">
         <v>3</v>
       </c>
       <c r="G69" t="s">
@@ -2795,7 +2790,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="D73" t="s">
         <v>3</v>
       </c>
       <c r="G73" t="s">
@@ -2849,7 +2844,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="D76" t="s">
         <v>3</v>
       </c>
       <c r="G76" t="s">
@@ -2903,7 +2898,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="D79" t="s">
         <v>3</v>
       </c>
       <c r="G79" t="s">
@@ -2957,7 +2952,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="D82" t="s">
         <v>3</v>
       </c>
       <c r="G82" t="s">
@@ -3011,7 +3006,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="C85" t="s">
         <v>3</v>
       </c>
       <c r="G85" t="s">
@@ -3029,7 +3024,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="D86" t="s">
         <v>3</v>
       </c>
       <c r="G86" t="s">
@@ -3083,7 +3078,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="D89" t="s">
         <v>3</v>
       </c>
       <c r="G89" t="s">
@@ -3137,7 +3132,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="D92" t="s">
         <v>3</v>
       </c>
       <c r="G92" t="s">
@@ -3191,7 +3186,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="E95" t="s">
+      <c r="D95" t="s">
         <v>3</v>
       </c>
       <c r="G95" t="s">
@@ -3245,7 +3240,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="E98" t="s">
+      <c r="D98" t="s">
         <v>3</v>
       </c>
       <c r="G98" t="s">
@@ -3299,7 +3294,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="E101" t="s">
+      <c r="C101" t="s">
         <v>3</v>
       </c>
       <c r="F101" t="n">
@@ -3320,7 +3315,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="E102" t="s">
+      <c r="C102" t="s">
         <v>3</v>
       </c>
       <c r="G102" t="s">
@@ -3338,7 +3333,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="E103" t="s">
+      <c r="D103" t="s">
         <v>3</v>
       </c>
       <c r="F103" t="n">
@@ -3356,7 +3351,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="E104" t="s">
+      <c r="D104" t="s">
         <v>3</v>
       </c>
       <c r="F104" t="n">
@@ -3374,7 +3369,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="E105" t="s">
+      <c r="C105" t="s">
         <v>3</v>
       </c>
       <c r="F105" t="n">
@@ -3395,7 +3390,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="E106" t="s">
+      <c r="C106" t="s">
         <v>3</v>
       </c>
       <c r="F106" t="n">
@@ -3416,7 +3411,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="E107" t="s">
+      <c r="B107" t="s">
         <v>3</v>
       </c>
       <c r="G107" t="s">
@@ -3431,7 +3426,7 @@
       <c r="J107"/>
     </row>
     <row r="108">
-      <c r="E108" t="s">
+      <c r="C108" t="s">
         <v>3</v>
       </c>
       <c r="F108" t="n">
@@ -3452,7 +3447,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="E109" t="s">
+      <c r="C109" t="s">
         <v>3</v>
       </c>
       <c r="F109" t="n">
@@ -3473,7 +3468,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="E110" t="s">
+      <c r="C110" t="s">
         <v>3</v>
       </c>
       <c r="F110" t="n">
@@ -3494,7 +3489,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="E111" t="s">
+      <c r="C111" t="s">
         <v>3</v>
       </c>
       <c r="F111" t="n">
@@ -3515,7 +3510,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="E112" t="s">
+      <c r="C112" t="s">
         <v>3</v>
       </c>
       <c r="F112" t="n">
@@ -3536,7 +3531,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="E113" t="s">
+      <c r="C113" t="s">
         <v>3</v>
       </c>
       <c r="F113" t="n">
@@ -3557,7 +3552,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="E114" t="s">
+      <c r="C114" t="s">
         <v>3</v>
       </c>
       <c r="F114" t="n">
@@ -3578,7 +3573,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="E115" t="s">
+      <c r="C115" t="s">
         <v>3</v>
       </c>
       <c r="F115" t="n">
@@ -3599,7 +3594,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="E116" t="s">
+      <c r="C116" t="s">
         <v>3</v>
       </c>
       <c r="F116" t="n">
@@ -3620,7 +3615,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="E117" t="s">
+      <c r="C117" t="s">
         <v>3</v>
       </c>
       <c r="F117" t="n">
@@ -3641,7 +3636,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="E118" t="s">
+      <c r="C118" t="s">
         <v>3</v>
       </c>
       <c r="F118" t="n">
@@ -3662,7 +3657,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="E119" t="s">
+      <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="G119" t="s">
@@ -3677,7 +3672,7 @@
       <c r="J119"/>
     </row>
     <row r="120">
-      <c r="E120" t="s">
+      <c r="C120" t="s">
         <v>3</v>
       </c>
       <c r="F120" t="n">
@@ -3698,7 +3693,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="E121" t="s">
+      <c r="C121" t="s">
         <v>3</v>
       </c>
       <c r="F121" t="n">
@@ -3719,7 +3714,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="E122" t="s">
+      <c r="C122" t="s">
         <v>3</v>
       </c>
       <c r="F122" t="n">
@@ -3740,7 +3735,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="E123" t="s">
+      <c r="C123" t="s">
         <v>3</v>
       </c>
       <c r="F123" t="n">
@@ -3761,7 +3756,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="E124" t="s">
+      <c r="B124" t="s">
         <v>3</v>
       </c>
       <c r="G124" t="s">
@@ -3776,7 +3771,7 @@
       <c r="J124"/>
     </row>
     <row r="125">
-      <c r="E125" t="s">
+      <c r="C125" t="s">
         <v>3</v>
       </c>
       <c r="F125" t="n">
@@ -3797,7 +3792,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="E126" t="s">
+      <c r="C126" t="s">
         <v>3</v>
       </c>
       <c r="F126" t="n">
@@ -3818,7 +3813,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="E127" t="s">
+      <c r="C127" t="s">
         <v>3</v>
       </c>
       <c r="F127" t="n">
@@ -3839,7 +3834,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="E128" t="s">
+      <c r="A128" t="s">
         <v>3</v>
       </c>
       <c r="G128" t="s">
@@ -3854,7 +3849,7 @@
       <c r="J128"/>
     </row>
     <row r="129">
-      <c r="E129" t="s">
+      <c r="B129" t="s">
         <v>3</v>
       </c>
       <c r="G129" t="s">
@@ -3869,7 +3864,7 @@
       <c r="J129"/>
     </row>
     <row r="130">
-      <c r="E130" t="s">
+      <c r="C130" t="s">
         <v>3</v>
       </c>
       <c r="F130" t="n">
@@ -3890,7 +3885,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="E131" t="s">
+      <c r="C131" t="s">
         <v>3</v>
       </c>
       <c r="F131" t="n">
@@ -3911,7 +3906,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="E132" t="s">
+      <c r="C132" t="s">
         <v>3</v>
       </c>
       <c r="F132" t="n">
@@ -3932,7 +3927,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="E133" t="s">
+      <c r="C133" t="s">
         <v>3</v>
       </c>
       <c r="F133" t="n">
@@ -3953,7 +3948,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="E134" t="s">
+      <c r="C134" t="s">
         <v>3</v>
       </c>
       <c r="F134" t="n">
@@ -3974,7 +3969,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="E135" t="s">
+      <c r="C135" t="s">
         <v>3</v>
       </c>
       <c r="F135" t="n">
@@ -3995,7 +3990,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="E136" t="s">
+      <c r="C136" t="s">
         <v>3</v>
       </c>
       <c r="F136" t="n">
@@ -4016,7 +4011,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="E137" t="s">
+      <c r="C137" t="s">
         <v>3</v>
       </c>
       <c r="F137" t="n">
@@ -4037,7 +4032,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="E138" t="s">
+      <c r="B138" t="s">
         <v>3</v>
       </c>
       <c r="G138" t="s">
@@ -4052,7 +4047,7 @@
       <c r="J138"/>
     </row>
     <row r="139">
-      <c r="E139" t="s">
+      <c r="C139" t="s">
         <v>3</v>
       </c>
       <c r="G139" t="s">
@@ -4070,7 +4065,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="E140" t="s">
+      <c r="D140" t="s">
         <v>3</v>
       </c>
       <c r="F140" t="n">
@@ -4091,7 +4086,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="E141" t="s">
+      <c r="D141" t="s">
         <v>3</v>
       </c>
       <c r="F141" t="n">
@@ -4112,7 +4107,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="E142" t="s">
+      <c r="D142" t="s">
         <v>3</v>
       </c>
       <c r="F142" t="n">
@@ -4133,7 +4128,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="E143" t="s">
+      <c r="D143" t="s">
         <v>3</v>
       </c>
       <c r="F143" t="n">
@@ -4154,7 +4149,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="E144" t="s">
+      <c r="C144" t="s">
         <v>3</v>
       </c>
       <c r="F144" t="n">
@@ -4175,7 +4170,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="E145" t="s">
+      <c r="C145" t="s">
         <v>3</v>
       </c>
       <c r="F145" t="n">
@@ -4196,7 +4191,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="E146" t="s">
+      <c r="C146" t="s">
         <v>3</v>
       </c>
       <c r="F146" t="n">
@@ -4217,7 +4212,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="E147" t="s">
+      <c r="C147" t="s">
         <v>3</v>
       </c>
       <c r="G147" t="s">
@@ -4235,7 +4230,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="E148" t="s">
+      <c r="D148" t="s">
         <v>3</v>
       </c>
       <c r="G148" t="s">
@@ -4251,7 +4246,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="E149" t="s">
+      <c r="D149" t="s">
         <v>3</v>
       </c>
       <c r="G149" t="s">
@@ -4264,7 +4259,7 @@
       <c r="J149"/>
     </row>
     <row r="150">
-      <c r="E150" t="s">
+      <c r="C150" t="s">
         <v>3</v>
       </c>
       <c r="G150" t="s">
@@ -4282,7 +4277,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="E151" t="s">
+      <c r="D151" t="s">
         <v>3</v>
       </c>
       <c r="F151" t="n">
@@ -4303,7 +4298,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="E152" t="s">
+      <c r="D152" t="s">
         <v>3</v>
       </c>
       <c r="F152" t="n">
@@ -4324,7 +4319,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="E153" t="s">
+      <c r="C153" t="s">
         <v>3</v>
       </c>
       <c r="G153" t="s">
@@ -4342,7 +4337,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="E154" t="s">
+      <c r="D154" t="s">
         <v>3</v>
       </c>
       <c r="F154" t="n">
@@ -4363,7 +4358,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="E155" t="s">
+      <c r="D155" t="s">
         <v>3</v>
       </c>
       <c r="F155" t="n">
@@ -4384,7 +4379,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="E156" t="s">
+      <c r="C156" t="s">
         <v>3</v>
       </c>
       <c r="G156" t="s">
@@ -4402,7 +4397,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="E157" t="s">
+      <c r="D157" t="s">
         <v>3</v>
       </c>
       <c r="F157" t="n">
@@ -4423,7 +4418,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="E158" t="s">
+      <c r="D158" t="s">
         <v>3</v>
       </c>
       <c r="F158" t="n">
@@ -4444,7 +4439,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="E159" t="s">
+      <c r="D159" t="s">
         <v>3</v>
       </c>
       <c r="F159" t="n">
@@ -4465,7 +4460,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="E160" t="s">
+      <c r="C160" t="s">
         <v>3</v>
       </c>
       <c r="G160" t="s">
@@ -4483,7 +4478,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="E161" t="s">
+      <c r="D161" t="s">
         <v>3</v>
       </c>
       <c r="F161" t="n">
@@ -4504,7 +4499,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="E162" t="s">
+      <c r="D162" t="s">
         <v>3</v>
       </c>
       <c r="F162" t="n">
@@ -4525,7 +4520,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="E163" t="s">
+      <c r="D163" t="s">
         <v>3</v>
       </c>
       <c r="F163" t="n">
@@ -4546,7 +4541,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="E164" t="s">
+      <c r="D164" t="s">
         <v>3</v>
       </c>
       <c r="F164" t="n">
@@ -4567,7 +4562,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="E165" t="s">
+      <c r="D165" t="s">
         <v>3</v>
       </c>
       <c r="F165" t="n">
@@ -4588,7 +4583,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="E166" t="s">
+      <c r="D166" t="s">
         <v>3</v>
       </c>
       <c r="F166" t="n">
@@ -4609,7 +4604,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="E167" t="s">
+      <c r="C167" t="s">
         <v>3</v>
       </c>
       <c r="F167" t="n">
@@ -4630,7 +4625,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="E168" t="s">
+      <c r="C168" t="s">
         <v>3</v>
       </c>
       <c r="F168" t="n">
@@ -4651,7 +4646,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="E169" t="s">
+      <c r="C169" t="s">
         <v>3</v>
       </c>
       <c r="F169" t="n">
@@ -4672,7 +4667,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="E170" t="s">
+      <c r="C170" t="s">
         <v>3</v>
       </c>
       <c r="F170" t="n">
@@ -4693,7 +4688,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="E171" t="s">
+      <c r="C171" t="s">
         <v>3</v>
       </c>
       <c r="F171" t="n">
@@ -4714,7 +4709,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="E172" t="s">
+      <c r="C172" t="s">
         <v>3</v>
       </c>
       <c r="F172" t="n">
@@ -4735,7 +4730,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="E173" t="s">
+      <c r="C173" t="s">
         <v>3</v>
       </c>
       <c r="F173" t="n">
@@ -4756,7 +4751,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="E174" t="s">
+      <c r="C174" t="s">
         <v>3</v>
       </c>
       <c r="F174" t="n">
@@ -4777,7 +4772,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="E175" t="s">
+      <c r="C175" t="s">
         <v>3</v>
       </c>
       <c r="F175" t="n">
@@ -4798,7 +4793,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="E176" t="s">
+      <c r="C176" t="s">
         <v>3</v>
       </c>
       <c r="F176" t="n">
@@ -4819,7 +4814,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="E177" t="s">
+      <c r="C177" t="s">
         <v>3</v>
       </c>
       <c r="F177" t="n">
@@ -4840,7 +4835,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="E178" t="s">
+      <c r="C178" t="s">
         <v>3</v>
       </c>
       <c r="F178" t="n">
@@ -4861,7 +4856,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="E179" t="s">
+      <c r="C179" t="s">
         <v>3</v>
       </c>
       <c r="F179" t="n">
@@ -4882,7 +4877,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="E180" t="s">
+      <c r="C180" t="s">
         <v>3</v>
       </c>
       <c r="F180" t="n">
@@ -4903,7 +4898,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="E181" t="s">
+      <c r="C181" t="s">
         <v>3</v>
       </c>
       <c r="G181" t="s">
@@ -4921,7 +4916,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="E182" t="s">
+      <c r="D182" t="s">
         <v>3</v>
       </c>
       <c r="F182" t="n">
@@ -4942,7 +4937,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="E183" t="s">
+      <c r="D183" t="s">
         <v>3</v>
       </c>
       <c r="F183" t="n">
@@ -4963,7 +4958,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="E184" t="s">
+      <c r="C184" t="s">
         <v>3</v>
       </c>
       <c r="G184" t="s">
@@ -4981,7 +4976,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="E185" t="s">
+      <c r="D185" t="s">
         <v>3</v>
       </c>
       <c r="F185" t="n">
@@ -5002,7 +4997,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="E186" t="s">
+      <c r="D186" t="s">
         <v>3</v>
       </c>
       <c r="F186" t="n">
@@ -5023,7 +5018,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="E187" t="s">
+      <c r="C187" t="s">
         <v>3</v>
       </c>
       <c r="F187" t="n">
@@ -5044,7 +5039,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="E188" t="s">
+      <c r="C188" t="s">
         <v>3</v>
       </c>
       <c r="G188" t="s">
@@ -5062,7 +5057,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="E189" t="s">
+      <c r="D189" t="s">
         <v>3</v>
       </c>
       <c r="F189" t="n">
@@ -5083,7 +5078,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="E190" t="s">
+      <c r="D190" t="s">
         <v>3</v>
       </c>
       <c r="F190" t="n">
@@ -5104,7 +5099,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="E191" t="s">
+      <c r="D191" t="s">
         <v>3</v>
       </c>
       <c r="F191" t="n">
@@ -5125,7 +5120,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="E192" t="s">
+      <c r="C192" t="s">
         <v>3</v>
       </c>
       <c r="F192" t="n">
@@ -5146,7 +5141,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="E193" t="s">
+      <c r="C193" t="s">
         <v>3</v>
       </c>
       <c r="F193" t="n">
@@ -5167,7 +5162,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="E194" t="s">
+      <c r="C194" t="s">
         <v>3</v>
       </c>
       <c r="F194" t="n">
@@ -5188,7 +5183,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="E195" t="s">
+      <c r="C195" t="s">
         <v>3</v>
       </c>
       <c r="F195" t="n">
@@ -5209,7 +5204,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="E196" t="s">
+      <c r="C196" t="s">
         <v>3</v>
       </c>
       <c r="F196" t="n">
@@ -5230,7 +5225,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="E197" t="s">
+      <c r="C197" t="s">
         <v>3</v>
       </c>
       <c r="F197" t="n">
@@ -5251,7 +5246,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="E198" t="s">
+      <c r="C198" t="s">
         <v>3</v>
       </c>
       <c r="F198" t="n">
@@ -5272,7 +5267,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="E199" t="s">
+      <c r="C199" t="s">
         <v>3</v>
       </c>
       <c r="F199" t="n">
@@ -5293,7 +5288,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="E200" t="s">
+      <c r="C200" t="s">
         <v>3</v>
       </c>
       <c r="F200" t="n">
@@ -5314,7 +5309,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="E201" t="s">
+      <c r="C201" t="s">
         <v>3</v>
       </c>
       <c r="F201" t="n">
@@ -5335,7 +5330,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="E202" t="s">
+      <c r="C202" t="s">
         <v>3</v>
       </c>
       <c r="F202" t="n">
@@ -5356,7 +5351,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="E203" t="s">
+      <c r="C203" t="s">
         <v>3</v>
       </c>
       <c r="F203" t="n">
@@ -5377,7 +5372,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="E204" t="s">
+      <c r="B204" t="s">
         <v>3</v>
       </c>
       <c r="G204" t="s">
@@ -5392,7 +5387,7 @@
       <c r="J204"/>
     </row>
     <row r="205">
-      <c r="E205" t="s">
+      <c r="C205" t="s">
         <v>3</v>
       </c>
       <c r="G205" t="s">
@@ -5410,7 +5405,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="E206" t="s">
+      <c r="D206" t="s">
         <v>3</v>
       </c>
       <c r="F206" t="n">
@@ -5431,7 +5426,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="E207" t="s">
+      <c r="D207" t="s">
         <v>3</v>
       </c>
       <c r="F207" t="n">
@@ -5452,7 +5447,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="E208" t="s">
+      <c r="C208" t="s">
         <v>3</v>
       </c>
       <c r="F208" t="n">
@@ -5473,7 +5468,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="E209" t="s">
+      <c r="C209" t="s">
         <v>3</v>
       </c>
       <c r="F209" t="n">
@@ -5494,7 +5489,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="E210" t="s">
+      <c r="C210" t="s">
         <v>3</v>
       </c>
       <c r="F210" t="n">
@@ -5515,7 +5510,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="E211" t="s">
+      <c r="C211" t="s">
         <v>3</v>
       </c>
       <c r="F211" t="n">
@@ -5536,7 +5531,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="E212" t="s">
+      <c r="B212" t="s">
         <v>3</v>
       </c>
       <c r="G212" t="s">
@@ -5551,7 +5546,7 @@
       <c r="J212"/>
     </row>
     <row r="213">
-      <c r="E213" t="s">
+      <c r="C213" t="s">
         <v>3</v>
       </c>
       <c r="F213" t="n">
@@ -5572,7 +5567,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="E214" t="s">
+      <c r="C214" t="s">
         <v>3</v>
       </c>
       <c r="F214" t="n">
@@ -5593,7 +5588,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="E215" t="s">
+      <c r="C215" t="s">
         <v>3</v>
       </c>
       <c r="F215" t="n">
@@ -5614,7 +5609,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="E216" t="s">
+      <c r="B216" t="s">
         <v>3</v>
       </c>
       <c r="G216" t="s">
@@ -5629,7 +5624,7 @@
       <c r="J216"/>
     </row>
     <row r="217">
-      <c r="E217" t="s">
+      <c r="C217" t="s">
         <v>3</v>
       </c>
       <c r="G217" t="s">
@@ -5647,7 +5642,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="E218" t="s">
+      <c r="D218" t="s">
         <v>3</v>
       </c>
       <c r="F218" t="n">
@@ -5668,7 +5663,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="E219" t="s">
+      <c r="D219" t="s">
         <v>3</v>
       </c>
       <c r="F219" t="n">
@@ -5686,7 +5681,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="E220" t="s">
+      <c r="D220" t="s">
         <v>3</v>
       </c>
       <c r="F220" t="n">
@@ -5707,7 +5702,7 @@
       </c>
     </row>
     <row r="221">
-      <c r="E221" t="s">
+      <c r="C221" t="s">
         <v>3</v>
       </c>
       <c r="F221" t="n">
@@ -5728,7 +5723,7 @@
       </c>
     </row>
     <row r="222">
-      <c r="E222" t="s">
+      <c r="C222" t="s">
         <v>3</v>
       </c>
       <c r="F222" t="n">
@@ -5749,7 +5744,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="E223" t="s">
+      <c r="C223" t="s">
         <v>3</v>
       </c>
       <c r="F223" t="n">
@@ -5770,7 +5765,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="E224" t="s">
+      <c r="C224" t="s">
         <v>3</v>
       </c>
       <c r="F224" t="n">
@@ -5791,7 +5786,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="E225" t="s">
+      <c r="C225" t="s">
         <v>3</v>
       </c>
       <c r="F225" t="n">
@@ -5812,7 +5807,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="E226" t="s">
+      <c r="C226" t="s">
         <v>3</v>
       </c>
       <c r="F226" t="n">
@@ -5833,7 +5828,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="E227" t="s">
+      <c r="B227" t="s">
         <v>3</v>
       </c>
       <c r="G227" t="s">
@@ -5848,7 +5843,7 @@
       <c r="J227"/>
     </row>
     <row r="228">
-      <c r="E228" t="s">
+      <c r="C228" t="s">
         <v>3</v>
       </c>
       <c r="F228" t="n">
@@ -5869,7 +5864,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="E229" t="s">
+      <c r="C229" t="s">
         <v>3</v>
       </c>
       <c r="F229" t="n">
@@ -5890,7 +5885,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="E230" t="s">
+      <c r="C230" t="s">
         <v>3</v>
       </c>
       <c r="F230" t="n">
@@ -5911,7 +5906,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="E231" t="s">
+      <c r="C231" t="s">
         <v>3</v>
       </c>
       <c r="F231" t="n">
@@ -5932,7 +5927,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="E232" t="s">
+      <c r="B232" t="s">
         <v>3</v>
       </c>
       <c r="G232" t="s">
@@ -5947,7 +5942,7 @@
       <c r="J232"/>
     </row>
     <row r="233">
-      <c r="E233" t="s">
+      <c r="C233" t="s">
         <v>3</v>
       </c>
       <c r="F233" t="n">
@@ -5968,7 +5963,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="E234" t="s">
+      <c r="C234" t="s">
         <v>3</v>
       </c>
       <c r="F234" t="n">
@@ -5989,7 +5984,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="E235" t="s">
+      <c r="B235" t="s">
         <v>3</v>
       </c>
       <c r="G235" t="s">
@@ -6004,7 +5999,7 @@
       <c r="J235"/>
     </row>
     <row r="236">
-      <c r="E236" t="s">
+      <c r="C236" t="s">
         <v>3</v>
       </c>
       <c r="F236" t="n">
@@ -6025,7 +6020,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="E237" t="s">
+      <c r="C237" t="s">
         <v>3</v>
       </c>
       <c r="F237" t="n">

--- a/Output/ServiceMenu.xlsx
+++ b/Output/ServiceMenu.xlsx
@@ -1325,7 +1325,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" max="1" width="2.17578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="2.17578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="2.17578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="2.17578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="2.17578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.33984375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="41.50390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.921875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.765625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="23.30078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
